--- a/rules/821.xlsx
+++ b/rules/821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,10 @@
     <t>男</t>
   </si>
   <si>
-    <t>沈阳市教育局（督导处）</t>
-  </si>
-  <si>
-    <t>督导处一处</t>
+    <t>沈阳市教育局</t>
+  </si>
+  <si>
+    <t>督导处</t>
   </si>
   <si>
     <t>蒋红</t>
@@ -2133,8 +2133,8 @@
   <sheetPr/>
   <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/rules/821.xlsx
+++ b/rules/821.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="306">
   <si>
     <t>姓名</t>
   </si>
@@ -602,10 +602,10 @@
     <t>蒋世明</t>
   </si>
   <si>
-    <t>范  崇</t>
-  </si>
-  <si>
-    <t>韩雪</t>
+    <t>刘昊鑫</t>
+  </si>
+  <si>
+    <t>王慧梅</t>
   </si>
   <si>
     <t>郜鹏</t>
@@ -894,6 +894,57 @@
   </si>
   <si>
     <t>杨俭玥</t>
+  </si>
+  <si>
+    <t>王建艳</t>
+  </si>
+  <si>
+    <t>任国栋</t>
+  </si>
+  <si>
+    <t>杨功勋</t>
+  </si>
+  <si>
+    <t>白艳</t>
+  </si>
+  <si>
+    <t>谷月</t>
+  </si>
+  <si>
+    <t>陆俊伟</t>
+  </si>
+  <si>
+    <t>杨阳</t>
+  </si>
+  <si>
+    <t>李木子</t>
+  </si>
+  <si>
+    <t>石嘉莹</t>
+  </si>
+  <si>
+    <t>17038237897</t>
+  </si>
+  <si>
+    <t>孙若彤</t>
+  </si>
+  <si>
+    <t>王敏</t>
+  </si>
+  <si>
+    <t>18601776173</t>
+  </si>
+  <si>
+    <t>孙翔宇</t>
+  </si>
+  <si>
+    <t>13817351648</t>
+  </si>
+  <si>
+    <t>经春秋</t>
+  </si>
+  <si>
+    <t>18001967083</t>
   </si>
 </sst>
 </file>
@@ -906,7 +957,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,13 +981,6 @@
       <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1083,12 +1127,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1418,13 +1468,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1433,123 +1486,123 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1594,8 +1647,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2131,70 +2196,70 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="65.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.8166666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.4416666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.4" style="3" customWidth="1"/>
+    <col min="1" max="1" width="65.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="47.8166666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.4416666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="49.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.4" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.6833333333333" customWidth="1"/>
     <col min="7" max="7" width="36.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="52.475" customWidth="1"/>
+    <col min="8" max="8" width="22.7333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:5">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="20.25" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>13940392395</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
         <v>13940392395</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>29567</v>
       </c>
       <c r="F3" t="s">
@@ -2208,19 +2273,19 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>17612413213</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
         <v>17612413213</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>29567</v>
       </c>
       <c r="F4" t="s">
@@ -2234,19 +2299,19 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>15640260946</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
         <v>15640260946</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>29567</v>
       </c>
       <c r="F5" t="s">
@@ -2260,19 +2325,19 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>13238838805</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
         <v>13238838805</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>29567</v>
       </c>
       <c r="F6" t="s">
@@ -2286,19 +2351,19 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>15840032878</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
         <v>15840032878</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>29567</v>
       </c>
       <c r="F7" t="s">
@@ -2312,19 +2377,19 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>13700047655</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10">
         <v>13700047655</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>29567</v>
       </c>
       <c r="F8" t="s">
@@ -2338,19 +2403,19 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>18698824065</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
         <v>18698824065</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>29567</v>
       </c>
       <c r="F9" t="s">
@@ -2364,19 +2429,19 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>15242423737</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
         <v>15242423737</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>29567</v>
       </c>
       <c r="F10" t="s">
@@ -2390,19 +2455,19 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>13080839063</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
         <v>13080839063</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>29567</v>
       </c>
       <c r="F11" t="s">
@@ -2416,19 +2481,19 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>15998399797</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
         <v>15998399797</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>29567</v>
       </c>
       <c r="F12" t="s">
@@ -2442,19 +2507,19 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>13940256328</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
         <v>13940256328</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>29567</v>
       </c>
       <c r="F13" t="s">
@@ -2468,19 +2533,19 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>13704000907</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
         <v>13704000907</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>29567</v>
       </c>
       <c r="F14" t="s">
@@ -2494,19 +2559,19 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>13080793517</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
         <v>13080793517</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>29567</v>
       </c>
       <c r="F15" t="s">
@@ -2520,19 +2585,19 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>13236662777</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
         <v>13236662777</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>29567</v>
       </c>
       <c r="F16" t="s">
@@ -2546,19 +2611,19 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>18940086313</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
         <v>18940086313</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>29567</v>
       </c>
       <c r="F17" t="s">
@@ -2572,19 +2637,19 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>13386888459</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
         <v>13386888459</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>29567</v>
       </c>
       <c r="F18" t="s">
@@ -2598,19 +2663,19 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>13998855505</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
         <v>13998855505</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>29567</v>
       </c>
       <c r="F19" t="s">
@@ -2624,19 +2689,19 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>13940136758</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
         <v>13940136758</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>29567</v>
       </c>
       <c r="F20" t="s">
@@ -2650,19 +2715,19 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>15241815858</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
         <v>15241815858</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>29567</v>
       </c>
       <c r="F21" t="s">
@@ -2676,19 +2741,19 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>13604184018</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
         <v>13604184018</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="8">
         <v>29567</v>
       </c>
       <c r="F22" t="s">
@@ -2702,19 +2767,19 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>18640300550</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
         <v>18640300550</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>29567</v>
       </c>
       <c r="F23" t="s">
@@ -2728,19 +2793,19 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>13704058933</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
         <v>13704058933</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>29567</v>
       </c>
       <c r="F24" t="s">
@@ -2754,19 +2819,19 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>15940021346</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
         <v>15940021346</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <v>29567</v>
       </c>
       <c r="F25" t="s">
@@ -2780,19 +2845,19 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="11">
         <v>15524490700</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="C26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="11">
         <v>15524490700</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>29567</v>
       </c>
       <c r="F26" t="s">
@@ -2806,19 +2871,19 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <v>29567</v>
       </c>
       <c r="F27" t="s">
@@ -2832,19 +2897,19 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>29567</v>
       </c>
       <c r="F28" t="s">
@@ -2858,19 +2923,19 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="11">
         <v>15502452976</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="C29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="11">
         <v>15502452976</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <v>29567</v>
       </c>
       <c r="F29" t="s">
@@ -2884,19 +2949,19 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="11">
         <v>13940177272</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="C30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="11">
         <v>13940177272</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>29567</v>
       </c>
       <c r="F30" t="s">
@@ -2910,19 +2975,19 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="11">
         <v>13002436777</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="C31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="11">
         <v>13002436777</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <v>29567</v>
       </c>
       <c r="F31" t="s">
@@ -2936,19 +3001,19 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <v>29567</v>
       </c>
       <c r="F32" t="s">
@@ -2962,19 +3027,19 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="11">
         <v>13920212604</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="C33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="11">
         <v>13920212604</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="8">
         <v>29567</v>
       </c>
       <c r="F33" t="s">
@@ -2988,19 +3053,19 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="8">
         <v>29567</v>
       </c>
       <c r="F34" t="s">
@@ -3014,19 +3079,19 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <v>29567</v>
       </c>
       <c r="F35" t="s">
@@ -3040,19 +3105,19 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="17" t="s">
+      <c r="C36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <v>29567</v>
       </c>
       <c r="F36" t="s">
@@ -3066,19 +3131,19 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <v>29567</v>
       </c>
       <c r="F37" t="s">
@@ -3092,19 +3157,19 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <v>29567</v>
       </c>
       <c r="F38" t="s">
@@ -3118,19 +3183,19 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="8">
         <v>29567</v>
       </c>
       <c r="F39" t="s">
@@ -3144,19 +3209,19 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="C40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <v>29567</v>
       </c>
       <c r="F40" t="s">
@@ -3170,19 +3235,19 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="C41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <v>29567</v>
       </c>
       <c r="F41" t="s">
@@ -3196,19 +3261,19 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="C42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="8">
         <v>29567</v>
       </c>
       <c r="F42" t="s">
@@ -3222,19 +3287,19 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="11">
         <v>13889210566</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="10">
+      <c r="C43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="11">
         <v>13889210566</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="8">
         <v>29567</v>
       </c>
       <c r="F43" t="s">
@@ -3248,19 +3313,19 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="17" t="s">
+      <c r="C44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="8">
         <v>29567</v>
       </c>
       <c r="F44" t="s">
@@ -3274,19 +3339,19 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="8">
         <v>29567</v>
       </c>
       <c r="F45" t="s">
@@ -3300,19 +3365,19 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="10" t="s">
+      <c r="C46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="8">
         <v>29567</v>
       </c>
       <c r="F46" t="s">
@@ -3326,19 +3391,19 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="C47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="8">
         <v>29567</v>
       </c>
       <c r="F47" t="s">
@@ -3352,19 +3417,19 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="11">
         <v>13889855255</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="10">
+      <c r="C48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="11">
         <v>13889855255</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="8">
         <v>29567</v>
       </c>
       <c r="F48" t="s">
@@ -3378,19 +3443,19 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="10" t="s">
+      <c r="C49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="8">
         <v>29567</v>
       </c>
       <c r="F49" t="s">
@@ -3404,19 +3469,19 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="11">
         <v>13940389376</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="10">
+      <c r="C50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="11">
         <v>13940389376</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="8">
         <v>29567</v>
       </c>
       <c r="F50" t="s">
@@ -3430,19 +3495,19 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="17" t="s">
+      <c r="C51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="8">
         <v>29567</v>
       </c>
       <c r="F51" t="s">
@@ -3456,19 +3521,19 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="8">
         <v>29567</v>
       </c>
       <c r="F52" t="s">
@@ -3482,19 +3547,19 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="17" t="s">
+      <c r="C53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="8">
         <v>29567</v>
       </c>
       <c r="F53" t="s">
@@ -3508,19 +3573,19 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="11">
         <v>13840476252</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="10">
+      <c r="C54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="11">
         <v>13840476252</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="8">
         <v>29567</v>
       </c>
       <c r="F54" t="s">
@@ -3534,19 +3599,19 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="C55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="8">
         <v>29567</v>
       </c>
       <c r="F55" t="s">
@@ -3560,19 +3625,19 @@
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:8">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="C56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="8">
         <v>29567</v>
       </c>
       <c r="F56" t="s">
@@ -3586,19 +3651,19 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="17" t="s">
+      <c r="C57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="8">
         <v>29567</v>
       </c>
       <c r="F57" t="s">
@@ -3612,19 +3677,19 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="10" t="s">
+      <c r="C58" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="8">
         <v>29567</v>
       </c>
       <c r="F58" t="s">
@@ -3638,19 +3703,19 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="17" t="s">
+      <c r="C59" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="8">
         <v>29567</v>
       </c>
       <c r="F59" t="s">
@@ -3664,19 +3729,19 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="C60" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="8">
         <v>29567</v>
       </c>
       <c r="F60" t="s">
@@ -3690,19 +3755,19 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="11">
         <v>13840187211</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="10">
+      <c r="C61" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="11">
         <v>13840187211</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="8">
         <v>29567</v>
       </c>
       <c r="F61" t="s">
@@ -3716,19 +3781,19 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="10" t="s">
+      <c r="C62" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="8">
         <v>29567</v>
       </c>
       <c r="F62" t="s">
@@ -3742,19 +3807,19 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="17" t="s">
+      <c r="C63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="8">
         <v>29567</v>
       </c>
       <c r="F63" t="s">
@@ -3768,19 +3833,19 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="10" t="s">
+      <c r="C64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="8">
         <v>29567</v>
       </c>
       <c r="F64" t="s">
@@ -3794,19 +3859,19 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="C65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="8">
         <v>29567</v>
       </c>
       <c r="F65" t="s">
@@ -3820,19 +3885,19 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="17" t="s">
+      <c r="C66" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="8">
         <v>29567</v>
       </c>
       <c r="F66" t="s">
@@ -3846,19 +3911,19 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="11">
         <v>13940387716</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="10">
+      <c r="C67" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="11">
         <v>13940387716</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="8">
         <v>29567</v>
       </c>
       <c r="F67" t="s">
@@ -3872,19 +3937,19 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="11">
         <v>13940152165</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="10">
+      <c r="C68" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="11">
         <v>13940152165</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="8">
         <v>29567</v>
       </c>
       <c r="F68" t="s">
@@ -3898,19 +3963,19 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="17" t="s">
+      <c r="C69" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="8">
         <v>29567</v>
       </c>
       <c r="F69" t="s">
@@ -3924,19 +3989,19 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="11">
         <v>18740056697</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="10">
+      <c r="C70" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="11">
         <v>18740056697</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="8">
         <v>29567</v>
       </c>
       <c r="F70" t="s">
@@ -3950,19 +4015,19 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="17" t="s">
+      <c r="C71" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="8">
         <v>29567</v>
       </c>
       <c r="F71" t="s">
@@ -3976,19 +4041,19 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="11">
         <v>18740035159</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="10">
+      <c r="C72" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="11">
         <v>18740035159</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="8">
         <v>29567</v>
       </c>
       <c r="F72" t="s">
@@ -4002,19 +4067,19 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="16" t="s">
+      <c r="C73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="8">
         <v>29567</v>
       </c>
       <c r="F73" t="s">
@@ -4028,19 +4093,19 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="11">
         <v>13904005050</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="10">
+      <c r="C74" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="11">
         <v>13904005050</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="8">
         <v>29567</v>
       </c>
       <c r="F74" t="s">
@@ -4054,19 +4119,19 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="11">
         <v>15640507865</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="10">
+      <c r="C75" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="11">
         <v>15640507865</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="8">
         <v>29567</v>
       </c>
       <c r="F75" t="s">
@@ -4080,19 +4145,19 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="14">
         <v>13998325500</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="13">
+      <c r="C76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="14">
         <v>13998325500</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="8">
         <v>29567</v>
       </c>
       <c r="F76" t="s">
@@ -4106,19 +4171,19 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="10">
         <v>18809883535</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="9">
+      <c r="C77" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="10">
         <v>18809883535</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="8">
         <v>29567</v>
       </c>
       <c r="F77" t="s">
@@ -4132,19 +4197,19 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="10">
         <v>15002403777</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="9">
+      <c r="C78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="10">
         <v>15002403777</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="8">
         <v>29567</v>
       </c>
       <c r="F78" t="s">
@@ -4158,19 +4223,19 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="10">
         <v>18640370221</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="9">
+      <c r="C79" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="10">
         <v>18640370221</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="8">
         <v>29567</v>
       </c>
       <c r="F79" t="s">
@@ -4184,19 +4249,19 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="10">
         <v>13514200606</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="9">
+      <c r="C80" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="10">
         <v>13514200606</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="8">
         <v>29567</v>
       </c>
       <c r="F80" t="s">
@@ -4210,19 +4275,19 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="10">
         <v>13555780950</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="9">
+      <c r="C81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="10">
         <v>13555780950</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="8">
         <v>29567</v>
       </c>
       <c r="F81" t="s">
@@ -4236,19 +4301,19 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="10">
         <v>13066658367</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="9">
+      <c r="C82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="10">
         <v>13066658367</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="8">
         <v>29567</v>
       </c>
       <c r="F82" t="s">
@@ -4262,19 +4327,19 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="10">
         <v>19824028888</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="9">
+      <c r="C83" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="10">
         <v>19824028888</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="8">
         <v>29567</v>
       </c>
       <c r="F83" t="s">
@@ -4288,19 +4353,19 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="10">
         <v>15998888243</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="9">
+      <c r="C84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="10">
         <v>15998888243</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="8">
         <v>29567</v>
       </c>
       <c r="F84" t="s">
@@ -4314,19 +4379,19 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="10">
         <v>13504907030</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="9">
+      <c r="C85" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="10">
         <v>13504907030</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="8">
         <v>29567</v>
       </c>
       <c r="F85" t="s">
@@ -4340,19 +4405,19 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="10">
         <v>15140105606</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="9">
+      <c r="C86" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="10">
         <v>15140105606</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="8">
         <v>29567</v>
       </c>
       <c r="F86" t="s">
@@ -4366,19 +4431,19 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="10">
         <v>18640290662</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="9">
+      <c r="C87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="10">
         <v>18640290662</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="8">
         <v>29567</v>
       </c>
       <c r="F87" t="s">
@@ -4392,19 +4457,19 @@
       </c>
     </row>
     <row r="88" ht="14" customHeight="1" spans="1:8">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="10">
         <v>15840114133</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="9">
+      <c r="C88" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="10">
         <v>15840114133</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="8">
         <v>29567</v>
       </c>
       <c r="F88" t="s">
@@ -4418,19 +4483,19 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="10">
         <v>18842395710</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="9">
+      <c r="C89" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="10">
         <v>18842395710</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="8">
         <v>29567</v>
       </c>
       <c r="F89" t="s">
@@ -4444,19 +4509,19 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="10">
         <v>15502478429</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="9">
+      <c r="C90" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="10">
         <v>15502478429</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="8">
         <v>29567</v>
       </c>
       <c r="F90" t="s">
@@ -4470,19 +4535,19 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="10">
         <v>13842074246</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="9">
+      <c r="C91" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="10">
         <v>13842074246</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="8">
         <v>29567</v>
       </c>
       <c r="F91" t="s">
@@ -4496,19 +4561,19 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="10">
         <v>15840358615</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="9">
+      <c r="C92" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="10">
         <v>15840358615</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="8">
         <v>29567</v>
       </c>
       <c r="F92" t="s">
@@ -4522,19 +4587,19 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="10">
         <v>13940067345</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="9">
+      <c r="C93" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="10">
         <v>13940067345</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="8">
         <v>29567</v>
       </c>
       <c r="F93" t="s">
@@ -4548,19 +4613,19 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="10">
         <v>13940054900</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="9">
+      <c r="C94" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="10">
         <v>13940054900</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="8">
         <v>29567</v>
       </c>
       <c r="F94" t="s">
@@ -4574,19 +4639,19 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="10">
         <v>13002492558</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="9">
+      <c r="C95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="10">
         <v>13002492558</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="8">
         <v>29567</v>
       </c>
       <c r="F95" t="s">
@@ -4600,19 +4665,19 @@
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="10">
         <v>13909883005</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="9">
+      <c r="C96" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="10">
         <v>13909883005</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="8">
         <v>29567</v>
       </c>
       <c r="F96" t="s">
@@ -4626,19 +4691,19 @@
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="10">
         <v>15004082727</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="9">
+      <c r="C97" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="10">
         <v>15004082727</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="8">
         <v>29567</v>
       </c>
       <c r="F97" t="s">
@@ -4652,19 +4717,19 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="10">
         <v>15640421787</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="9">
+      <c r="C98" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="10">
         <v>15640421787</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="8">
         <v>29567</v>
       </c>
       <c r="F98" t="s">
@@ -4678,19 +4743,19 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="10">
         <v>13504983493</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="9">
+      <c r="C99" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="10">
         <v>13504983493</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="8">
         <v>29567</v>
       </c>
       <c r="F99" t="s">
@@ -4704,19 +4769,19 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="10">
         <v>13664117945</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="9">
+      <c r="C100" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="10">
         <v>13664117945</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="8">
         <v>29567</v>
       </c>
       <c r="F100" t="s">
@@ -4730,19 +4795,19 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="13">
         <v>18940087000</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="12">
+      <c r="C101" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="13">
         <v>18940087000</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="8">
         <v>29567</v>
       </c>
       <c r="F101" t="s">
@@ -4756,19 +4821,19 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="12">
+      <c r="B102" s="13">
         <v>15004024817</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="12">
+      <c r="C102" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="13">
         <v>15004024817</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="8">
         <v>29567</v>
       </c>
       <c r="F102" t="s">
@@ -4782,19 +4847,19 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B103" s="13">
         <v>13032444977</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="12">
+      <c r="C103" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="13">
         <v>13032444977</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="8">
         <v>29567</v>
       </c>
       <c r="F103" t="s">
@@ -4808,19 +4873,19 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B104" s="12">
+      <c r="B104" s="13">
         <v>13504989152</v>
       </c>
-      <c r="C104" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="12">
+      <c r="C104" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="13">
         <v>13504989152</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="8">
         <v>29567</v>
       </c>
       <c r="F104" t="s">
@@ -4834,19 +4899,19 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B105" s="12">
+      <c r="B105" s="13">
         <v>13614012359</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="12">
+      <c r="C105" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="13">
         <v>13614012359</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="8">
         <v>29567</v>
       </c>
       <c r="F105" t="s">
@@ -4860,19 +4925,19 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="12">
+      <c r="B106" s="13">
         <v>13304040096</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="12">
+      <c r="C106" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="13">
         <v>13304040096</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="8">
         <v>29567</v>
       </c>
       <c r="F106" t="s">
@@ -4886,19 +4951,19 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="13">
         <v>13940297251</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="12">
+      <c r="C107" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="13">
         <v>13940297251</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="8">
         <v>29567</v>
       </c>
       <c r="F107" t="s">
@@ -4912,19 +4977,19 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="13">
         <v>13898102008</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="12">
+      <c r="C108" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="13">
         <v>13898102008</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="8">
         <v>29567</v>
       </c>
       <c r="F108" t="s">
@@ -4938,19 +5003,19 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="13">
         <v>13704014007</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="12">
+      <c r="C109" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="13">
         <v>13704014007</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="8">
         <v>29567</v>
       </c>
       <c r="F109" t="s">
@@ -4964,19 +5029,19 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="14">
         <v>15242455989</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="13">
+      <c r="C110" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="14">
         <v>15242455989</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="8">
         <v>29567</v>
       </c>
       <c r="F110" t="s">
@@ -4990,19 +5055,19 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B111" s="12">
+      <c r="B111" s="13">
         <v>13998811712</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="12">
+      <c r="C111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="13">
         <v>13998811712</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="8">
         <v>29567</v>
       </c>
       <c r="F111" t="s">
@@ -5016,19 +5081,19 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B112" s="12">
+      <c r="B112" s="13">
         <v>15840577757</v>
       </c>
-      <c r="C112" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="12">
+      <c r="C112" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="13">
         <v>15840577757</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="8">
         <v>29567</v>
       </c>
       <c r="F112" t="s">
@@ -5042,19 +5107,19 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B113" s="12">
+      <c r="B113" s="13">
         <v>13604925855</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="12">
+      <c r="C113" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="13">
         <v>13604925855</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="8">
         <v>29567</v>
       </c>
       <c r="F113" t="s">
@@ -5068,19 +5133,19 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B114" s="12">
+      <c r="B114" s="13">
         <v>13840166012</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="12">
+      <c r="C114" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="13">
         <v>13840166012</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="8">
         <v>29567</v>
       </c>
       <c r="F114" t="s">
@@ -5094,19 +5159,19 @@
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="13">
         <v>13332432100</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="12">
+      <c r="C115" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="13">
         <v>13332432100</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="8">
         <v>29567</v>
       </c>
       <c r="F115" t="s">
@@ -5120,19 +5185,19 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="12">
+      <c r="B116" s="13">
         <v>13709823259</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="12">
+      <c r="C116" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="13">
         <v>13709823259</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="8">
         <v>29567</v>
       </c>
       <c r="F116" t="s">
@@ -5146,19 +5211,19 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="13">
         <v>13940372821</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="12">
+      <c r="C117" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="13">
         <v>13940372821</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="8">
         <v>29567</v>
       </c>
       <c r="F117" t="s">
@@ -5172,19 +5237,19 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B118" s="12">
+      <c r="B118" s="13">
         <v>18940200095</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="12">
+      <c r="C118" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="13">
         <v>18940200095</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="8">
         <v>29567</v>
       </c>
       <c r="F118" t="s">
@@ -5198,19 +5263,19 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B119" s="12">
+      <c r="B119" s="13">
         <v>15710552000</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="12">
+      <c r="C119" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="13">
         <v>15710552000</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="8">
         <v>29567</v>
       </c>
       <c r="F119" t="s">
@@ -5224,19 +5289,19 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B120" s="12">
+      <c r="B120" s="13">
         <v>13324011255</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="12">
+      <c r="C120" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="13">
         <v>13324011255</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="8">
         <v>29567</v>
       </c>
       <c r="F120" t="s">
@@ -5250,19 +5315,19 @@
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B121" s="13">
         <v>13840357926</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="12">
+      <c r="C121" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="13">
         <v>13840357926</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="8">
         <v>29567</v>
       </c>
       <c r="F121" t="s">
@@ -5276,19 +5341,19 @@
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B122" s="13">
         <v>13940045525</v>
       </c>
-      <c r="C122" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="12">
+      <c r="C122" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="13">
         <v>13940045525</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="8">
         <v>29567</v>
       </c>
       <c r="F122" t="s">
@@ -5302,19 +5367,19 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B123" s="12">
+      <c r="B123" s="13">
         <v>18642099695</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="12">
+      <c r="C123" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="13">
         <v>18642099695</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="8">
         <v>29567</v>
       </c>
       <c r="F123" t="s">
@@ -5328,19 +5393,19 @@
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B124" s="12">
+      <c r="B124" s="13">
         <v>13998368001</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="12">
+      <c r="C124" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="13">
         <v>13998368001</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="8">
         <v>29567</v>
       </c>
       <c r="F124" t="s">
@@ -5354,19 +5419,19 @@
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B125" s="12">
+      <c r="B125" s="13">
         <v>13609811875</v>
       </c>
-      <c r="C125" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="12">
+      <c r="C125" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="13">
         <v>13609811875</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="8">
         <v>29567</v>
       </c>
       <c r="F125" t="s">
@@ -5380,19 +5445,19 @@
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B126" s="12">
+      <c r="B126" s="13">
         <v>13897954001</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="12">
+      <c r="C126" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="13">
         <v>13897954001</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="8">
         <v>29567</v>
       </c>
       <c r="F126" t="s">
@@ -5406,19 +5471,19 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B127" s="12">
+      <c r="B127" s="13">
         <v>15998817342</v>
       </c>
-      <c r="C127" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="12">
+      <c r="C127" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="13">
         <v>15998817342</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="8">
         <v>29567</v>
       </c>
       <c r="F127" t="s">
@@ -5432,19 +5497,19 @@
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B128" s="12">
+      <c r="B128" s="13">
         <v>13840510465</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="12">
+      <c r="C128" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="13">
         <v>13840510465</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="8">
         <v>29567</v>
       </c>
       <c r="F128" t="s">
@@ -5458,19 +5523,19 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="13">
         <v>13066651766</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="12">
+      <c r="C129" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="13">
         <v>13066651766</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="8">
         <v>29567</v>
       </c>
       <c r="F129" t="s">
@@ -5484,19 +5549,19 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B130" s="12">
+      <c r="B130" s="13">
         <v>13609832096</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="12">
+      <c r="C130" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="13">
         <v>13609832096</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="8">
         <v>29567</v>
       </c>
       <c r="F130" t="s">
@@ -5510,19 +5575,19 @@
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B131" s="12">
+      <c r="B131" s="13">
         <v>18740021215</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="12">
+      <c r="C131" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="13">
         <v>18740021215</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="8">
         <v>29567</v>
       </c>
       <c r="F131" t="s">
@@ -5536,19 +5601,19 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B132" s="12">
+      <c r="B132" s="13">
         <v>13889330123</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="12">
+      <c r="C132" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="13">
         <v>13889330123</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="8">
         <v>29567</v>
       </c>
       <c r="F132" t="s">
@@ -5562,19 +5627,19 @@
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="2">
         <v>13940004778</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="1">
+      <c r="C133" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2">
         <v>13940004778</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="8">
         <v>29567</v>
       </c>
       <c r="F133" t="s">
@@ -5588,19 +5653,19 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="2">
         <v>13998378338</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="1">
+      <c r="C134" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2">
         <v>13998378338</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="8">
         <v>29567</v>
       </c>
       <c r="F134" t="s">
@@ -5614,19 +5679,19 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="2">
         <v>13694129345</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="1">
+      <c r="C135" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2">
         <v>13694129345</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="8">
         <v>29567</v>
       </c>
       <c r="F135" t="s">
@@ -5640,19 +5705,19 @@
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="2">
         <v>13840312589</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="1">
+      <c r="C136" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2">
         <v>13840312589</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="8">
         <v>29567</v>
       </c>
       <c r="F136" t="s">
@@ -5666,19 +5731,19 @@
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:8">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="2">
         <v>18842458189</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="1">
+      <c r="C137" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2">
         <v>18842458189</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="8">
         <v>29567</v>
       </c>
       <c r="F137" t="s">
@@ -5692,19 +5757,19 @@
       </c>
     </row>
     <row r="138" ht="15" customHeight="1" spans="1:8">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="2">
         <v>13889848449</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="1">
+      <c r="C138" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2">
         <v>13889848449</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="8">
         <v>29567</v>
       </c>
       <c r="F138" t="s">
@@ -5718,19 +5783,19 @@
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="2">
         <v>13940158117</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="1">
+      <c r="C139" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2">
         <v>13940158117</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="8">
         <v>29567</v>
       </c>
       <c r="F139" t="s">
@@ -5744,19 +5809,19 @@
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="2">
         <v>18604006059</v>
       </c>
-      <c r="C140" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="1">
+      <c r="C140" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2">
         <v>18604006059</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="8">
         <v>29567</v>
       </c>
       <c r="F140" t="s">
@@ -5770,19 +5835,19 @@
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="2">
         <v>13032463389</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="1">
+      <c r="C141" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2">
         <v>13032463389</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="8">
         <v>29567</v>
       </c>
       <c r="F141" t="s">
@@ -5796,19 +5861,19 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="2">
         <v>13704059966</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="1">
+      <c r="C142" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2">
         <v>13704059966</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="8">
         <v>29567</v>
       </c>
       <c r="F142" t="s">
@@ -5822,19 +5887,19 @@
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="2">
         <v>19818805866</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="1">
+      <c r="C143" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2">
         <v>19818805866</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="8">
         <v>29567</v>
       </c>
       <c r="F143" t="s">
@@ -5848,19 +5913,19 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="2">
         <v>13889191246</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="1">
+      <c r="C144" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2">
         <v>13889191246</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="8">
         <v>29567</v>
       </c>
       <c r="F144" t="s">
@@ -5874,19 +5939,19 @@
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="2">
         <v>13322400308</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="1">
+      <c r="C145" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2">
         <v>13322400308</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="8">
         <v>29567</v>
       </c>
       <c r="F145" t="s">
@@ -5900,19 +5965,19 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="2">
         <v>13478806793</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="1">
+      <c r="C146" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2">
         <v>13478806793</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="8">
         <v>29567</v>
       </c>
       <c r="F146" t="s">
@@ -5926,19 +5991,19 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B147" s="12">
+      <c r="B147" s="13">
         <v>13897971801</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="12">
+      <c r="C147" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="13">
         <v>13897971801</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="8">
         <v>29567</v>
       </c>
       <c r="F147" t="s">
@@ -5952,19 +6017,19 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B148" s="12">
+      <c r="B148" s="13">
         <v>15998381823</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="12">
+      <c r="C148" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="13">
         <v>15998381823</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="8">
         <v>29567</v>
       </c>
       <c r="F148" t="s">
@@ -5978,19 +6043,19 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B149" s="12">
+      <c r="B149" s="13">
+        <v>19538163996</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="13">
         <v>15940199008</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="12">
-        <v>15940199008</v>
-      </c>
-      <c r="E149" s="7">
+      <c r="E149" s="8">
         <v>29567</v>
       </c>
       <c r="F149" t="s">
@@ -6004,19 +6069,19 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B150" s="12">
+      <c r="B150" s="13">
+        <v>15040132775</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="13">
         <v>18840066566</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="12">
-        <v>18840066566</v>
-      </c>
-      <c r="E150" s="7">
+      <c r="E150" s="8">
         <v>29567</v>
       </c>
       <c r="F150" t="s">
@@ -6030,19 +6095,19 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B151" s="12">
+      <c r="B151" s="13">
         <v>15940572908</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="12">
+      <c r="C151" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="13">
         <v>15940572908</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="8">
         <v>29567</v>
       </c>
       <c r="F151" t="s">
@@ -6056,19 +6121,19 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B152" s="12">
+      <c r="B152" s="13">
         <v>13624030588</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="12">
+      <c r="C152" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="13">
         <v>13624030588</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="8">
         <v>29567</v>
       </c>
       <c r="F152" t="s">
@@ -6082,19 +6147,19 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B153" s="12">
+      <c r="B153" s="13">
         <v>17740076011</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="12">
+      <c r="C153" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="13">
         <v>17740076011</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="8">
         <v>29567</v>
       </c>
       <c r="F153" t="s">
@@ -6108,19 +6173,19 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B154" s="12">
+      <c r="B154" s="13">
         <v>13464004925</v>
       </c>
-      <c r="C154" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="12">
+      <c r="C154" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="13">
         <v>13464004925</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E154" s="8">
         <v>29567</v>
       </c>
       <c r="F154" t="s">
@@ -6134,19 +6199,19 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="2">
         <v>13840199505</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="1">
+      <c r="C155" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2">
         <v>13840199505</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155" s="8">
         <v>29567</v>
       </c>
       <c r="F155" t="s">
@@ -6160,19 +6225,19 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B156" s="14">
+      <c r="B156" s="15">
         <v>13840077563</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="14">
+      <c r="C156" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="15">
         <v>13840077563</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E156" s="8">
         <v>29567</v>
       </c>
       <c r="F156" t="s">
@@ -6186,19 +6251,19 @@
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="12" t="s">
+      <c r="A157" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B157" s="12">
+      <c r="B157" s="13">
         <v>13909883150</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="12">
+      <c r="C157" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="13">
         <v>13909883150</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E157" s="8">
         <v>29567</v>
       </c>
       <c r="F157" t="s">
@@ -6212,19 +6277,19 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="12" t="s">
+      <c r="A158" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B158" s="12">
+      <c r="B158" s="13">
         <v>15942078395</v>
       </c>
-      <c r="C158" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="12">
+      <c r="C158" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="13">
         <v>15942078395</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E158" s="8">
         <v>29567</v>
       </c>
       <c r="F158" t="s">
@@ -6238,19 +6303,19 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B159" s="12">
+      <c r="B159" s="13">
         <v>15998345399</v>
       </c>
-      <c r="C159" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="12">
+      <c r="C159" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="13">
         <v>15998345399</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159" s="8">
         <v>29567</v>
       </c>
       <c r="F159" t="s">
@@ -6264,19 +6329,19 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="12" t="s">
+      <c r="A160" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B160" s="12">
+      <c r="B160" s="13">
         <v>13358861889</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="12">
+      <c r="C160" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="13">
         <v>13358861889</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E160" s="8">
         <v>29567</v>
       </c>
       <c r="F160" t="s">
@@ -6290,19 +6355,19 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="12" t="s">
+      <c r="A161" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B161" s="12">
+      <c r="B161" s="13">
         <v>15840081661</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="12">
+      <c r="C161" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="13">
         <v>15840081661</v>
       </c>
-      <c r="E161" s="7">
+      <c r="E161" s="8">
         <v>29567</v>
       </c>
       <c r="F161" t="s">
@@ -6316,19 +6381,19 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="12" t="s">
+      <c r="A162" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B162" s="12">
+      <c r="B162" s="13">
         <v>15004019615</v>
       </c>
-      <c r="C162" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="12">
+      <c r="C162" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="13">
         <v>15004019615</v>
       </c>
-      <c r="E162" s="7">
+      <c r="E162" s="8">
         <v>29567</v>
       </c>
       <c r="F162" t="s">
@@ -6342,19 +6407,19 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="12" t="s">
+      <c r="A163" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B163" s="12">
+      <c r="B163" s="13">
         <v>15040278377</v>
       </c>
-      <c r="C163" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="12">
+      <c r="C163" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="13">
         <v>15040278377</v>
       </c>
-      <c r="E163" s="7">
+      <c r="E163" s="8">
         <v>29567</v>
       </c>
       <c r="F163" t="s">
@@ -6368,19 +6433,19 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B164" s="12">
+      <c r="B164" s="13">
         <v>15002402929</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="12">
+      <c r="C164" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="13">
         <v>15002402929</v>
       </c>
-      <c r="E164" s="7">
+      <c r="E164" s="8">
         <v>29567</v>
       </c>
       <c r="F164" t="s">
@@ -6394,19 +6459,19 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B165" s="12">
+      <c r="B165" s="13">
         <v>13694123268</v>
       </c>
-      <c r="C165" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="12">
+      <c r="C165" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="13">
         <v>13694123268</v>
       </c>
-      <c r="E165" s="7">
+      <c r="E165" s="8">
         <v>29567</v>
       </c>
       <c r="F165" t="s">
@@ -6420,19 +6485,19 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="12" t="s">
+      <c r="A166" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B166" s="12">
+      <c r="B166" s="13">
         <v>18204028695</v>
       </c>
-      <c r="C166" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="12">
+      <c r="C166" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="13">
         <v>18204028695</v>
       </c>
-      <c r="E166" s="7">
+      <c r="E166" s="8">
         <v>29567</v>
       </c>
       <c r="F166" t="s">
@@ -6446,19 +6511,19 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B167" s="12">
+      <c r="B167" s="13">
         <v>13609891659</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="12">
+      <c r="C167" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="13">
         <v>13609891659</v>
       </c>
-      <c r="E167" s="7">
+      <c r="E167" s="8">
         <v>29567</v>
       </c>
       <c r="F167" t="s">
@@ -6472,19 +6537,19 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="2">
         <v>18640256300</v>
       </c>
-      <c r="C168" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="1">
+      <c r="C168" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2">
         <v>18640256300</v>
       </c>
-      <c r="E168" s="7">
+      <c r="E168" s="8">
         <v>29567</v>
       </c>
       <c r="F168" t="s">
@@ -6498,19 +6563,19 @@
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="2">
         <v>13889288282</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="1">
+      <c r="C169" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2">
         <v>13889288282</v>
       </c>
-      <c r="E169" s="7">
+      <c r="E169" s="8">
         <v>29567</v>
       </c>
       <c r="F169" t="s">
@@ -6524,19 +6589,19 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="2">
         <v>13604184465</v>
       </c>
-      <c r="C170" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="1">
+      <c r="C170" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2">
         <v>13604184465</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E170" s="8">
         <v>29567</v>
       </c>
       <c r="F170" t="s">
@@ -6550,19 +6615,19 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="2">
         <v>13840264278</v>
       </c>
-      <c r="C171" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="1">
+      <c r="C171" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2">
         <v>13840264278</v>
       </c>
-      <c r="E171" s="7">
+      <c r="E171" s="8">
         <v>29567</v>
       </c>
       <c r="F171" t="s">
@@ -6576,19 +6641,19 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="2">
         <v>13842013533</v>
       </c>
-      <c r="C172" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="1">
+      <c r="C172" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2">
         <v>13842013533</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E172" s="8">
         <v>29567</v>
       </c>
       <c r="F172" t="s">
@@ -6602,19 +6667,19 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="2">
         <v>13940257688</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="1">
+      <c r="C173" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2">
         <v>13940257688</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E173" s="8">
         <v>29567</v>
       </c>
       <c r="F173" t="s">
@@ -6628,19 +6693,19 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="2">
         <v>15040174411</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="1">
+      <c r="C174" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2">
         <v>15040174411</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E174" s="8">
         <v>29567</v>
       </c>
       <c r="F174" t="s">
@@ -6654,19 +6719,19 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="2">
         <v>15942025151</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="1">
+      <c r="C175" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2">
         <v>15942025151</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E175" s="8">
         <v>29567</v>
       </c>
       <c r="F175" t="s">
@@ -6680,19 +6745,19 @@
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="2">
         <v>15998150910</v>
       </c>
-      <c r="C176" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="1">
+      <c r="C176" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2">
         <v>15998150910</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E176" s="8">
         <v>29567</v>
       </c>
       <c r="F176" t="s">
@@ -6706,19 +6771,19 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="2">
         <v>15998375533</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="1">
+      <c r="C177" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2">
         <v>15998375533</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E177" s="8">
         <v>29567</v>
       </c>
       <c r="F177" t="s">
@@ -6732,19 +6797,19 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="2">
         <v>18309871577</v>
       </c>
-      <c r="C178" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="1">
+      <c r="C178" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2">
         <v>18309871577</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E178" s="8">
         <v>29567</v>
       </c>
       <c r="F178" t="s">
@@ -6758,19 +6823,19 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="2">
         <v>15940001289</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="1">
+      <c r="C179" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2">
         <v>15940001289</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E179" s="8">
         <v>29567</v>
       </c>
       <c r="F179" t="s">
@@ -6784,19 +6849,19 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="2">
         <v>17642065131</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="1">
+      <c r="C180" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2">
         <v>17642065131</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E180" s="8">
         <v>29567</v>
       </c>
       <c r="F180" t="s">
@@ -6810,19 +6875,19 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="2">
         <v>13591648235</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="1">
+      <c r="C181" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2">
         <v>13591648235</v>
       </c>
-      <c r="E181" s="7">
+      <c r="E181" s="8">
         <v>29567</v>
       </c>
       <c r="F181" t="s">
@@ -6836,19 +6901,19 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="2">
         <v>15998265893</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="1">
+      <c r="C182" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2">
         <v>15998265893</v>
       </c>
-      <c r="E182" s="7">
+      <c r="E182" s="8">
         <v>29567</v>
       </c>
       <c r="F182" t="s">
@@ -6862,19 +6927,19 @@
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="2">
         <v>15940188078</v>
       </c>
-      <c r="C183" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="1">
+      <c r="C183" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2">
         <v>15940188078</v>
       </c>
-      <c r="E183" s="7">
+      <c r="E183" s="8">
         <v>29567</v>
       </c>
       <c r="F183" t="s">
@@ -6888,19 +6953,19 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="2">
         <v>13654035806</v>
       </c>
-      <c r="C184" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="1">
+      <c r="C184" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2">
         <v>13654035806</v>
       </c>
-      <c r="E184" s="7">
+      <c r="E184" s="8">
         <v>29567</v>
       </c>
       <c r="F184" t="s">
@@ -6914,19 +6979,19 @@
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="2">
         <v>13464009212</v>
       </c>
-      <c r="C185" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="1">
+      <c r="C185" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2">
         <v>13464009212</v>
       </c>
-      <c r="E185" s="7">
+      <c r="E185" s="8">
         <v>29567</v>
       </c>
       <c r="F185" t="s">
@@ -6940,19 +7005,19 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="2">
         <v>18802448482</v>
       </c>
-      <c r="C186" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="1">
+      <c r="C186" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2">
         <v>18802448482</v>
       </c>
-      <c r="E186" s="7">
+      <c r="E186" s="8">
         <v>29567</v>
       </c>
       <c r="F186" t="s">
@@ -6966,19 +7031,19 @@
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="2">
         <v>13889856669</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="1">
+      <c r="C187" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2">
         <v>13889856669</v>
       </c>
-      <c r="E187" s="7">
+      <c r="E187" s="8">
         <v>29567</v>
       </c>
       <c r="F187" t="s">
@@ -6992,19 +7057,19 @@
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="2">
         <v>13504039909</v>
       </c>
-      <c r="C188" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="1">
+      <c r="C188" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2">
         <v>13504039909</v>
       </c>
-      <c r="E188" s="7">
+      <c r="E188" s="8">
         <v>29567</v>
       </c>
       <c r="F188" t="s">
@@ -7018,19 +7083,19 @@
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="2">
         <v>15998208936</v>
       </c>
-      <c r="C189" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="1">
+      <c r="C189" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2">
         <v>15998208936</v>
       </c>
-      <c r="E189" s="7">
+      <c r="E189" s="8">
         <v>29567</v>
       </c>
       <c r="F189" t="s">
@@ -7044,19 +7109,19 @@
       </c>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="2">
         <v>18704077890</v>
       </c>
-      <c r="C190" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="1">
+      <c r="C190" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2">
         <v>18704077890</v>
       </c>
-      <c r="E190" s="7">
+      <c r="E190" s="8">
         <v>29567</v>
       </c>
       <c r="F190" t="s">
@@ -7070,19 +7135,19 @@
       </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="2">
         <v>13609886911</v>
       </c>
-      <c r="C191" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="1">
+      <c r="C191" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2">
         <v>13609886911</v>
       </c>
-      <c r="E191" s="7">
+      <c r="E191" s="8">
         <v>29567</v>
       </c>
       <c r="F191" t="s">
@@ -7096,19 +7161,19 @@
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="2">
         <v>13998806855</v>
       </c>
-      <c r="C192" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="1">
+      <c r="C192" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2">
         <v>13998806855</v>
       </c>
-      <c r="E192" s="7">
+      <c r="E192" s="8">
         <v>29567</v>
       </c>
       <c r="F192" t="s">
@@ -7122,19 +7187,19 @@
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="2">
         <v>13019392166</v>
       </c>
-      <c r="C193" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="1">
+      <c r="C193" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2">
         <v>13019392166</v>
       </c>
-      <c r="E193" s="7">
+      <c r="E193" s="8">
         <v>29567</v>
       </c>
       <c r="F193" t="s">
@@ -7148,19 +7213,19 @@
       </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="2">
         <v>13464046488</v>
       </c>
-      <c r="C194" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="1">
+      <c r="C194" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2">
         <v>13464046488</v>
       </c>
-      <c r="E194" s="7">
+      <c r="E194" s="8">
         <v>29567</v>
       </c>
       <c r="F194" t="s">
@@ -7174,19 +7239,19 @@
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="2">
         <v>15909838098</v>
       </c>
-      <c r="C195" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="1">
+      <c r="C195" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2">
         <v>15909838098</v>
       </c>
-      <c r="E195" s="7">
+      <c r="E195" s="8">
         <v>29567</v>
       </c>
       <c r="F195" t="s">
@@ -7200,19 +7265,19 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="2">
         <v>15204029222</v>
       </c>
-      <c r="C196" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="1">
+      <c r="C196" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2">
         <v>15204029222</v>
       </c>
-      <c r="E196" s="7">
+      <c r="E196" s="8">
         <v>29567</v>
       </c>
       <c r="F196" t="s">
@@ -7226,19 +7291,19 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="2">
         <v>13840583648</v>
       </c>
-      <c r="C197" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="1">
+      <c r="C197" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2">
         <v>13840583648</v>
       </c>
-      <c r="E197" s="7">
+      <c r="E197" s="8">
         <v>29567</v>
       </c>
       <c r="F197" t="s">
@@ -7252,19 +7317,19 @@
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="2">
         <v>13610816623</v>
       </c>
-      <c r="C198" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="1">
+      <c r="C198" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2">
         <v>13610816623</v>
       </c>
-      <c r="E198" s="7">
+      <c r="E198" s="8">
         <v>29567</v>
       </c>
       <c r="F198" t="s">
@@ -7278,19 +7343,19 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="2">
         <v>15840298958</v>
       </c>
-      <c r="C199" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="1">
+      <c r="C199" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2">
         <v>15840298958</v>
       </c>
-      <c r="E199" s="7">
+      <c r="E199" s="8">
         <v>29567</v>
       </c>
       <c r="F199" t="s">
@@ -7304,19 +7369,19 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="2">
         <v>13042401000</v>
       </c>
-      <c r="C200" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="1">
+      <c r="C200" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2">
         <v>13042401000</v>
       </c>
-      <c r="E200" s="7">
+      <c r="E200" s="8">
         <v>29567</v>
       </c>
       <c r="F200" t="s">
@@ -7330,19 +7395,19 @@
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="2">
         <v>18302408648</v>
       </c>
-      <c r="C201" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="1">
+      <c r="C201" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2">
         <v>18302408648</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E201" s="8">
         <v>29567</v>
       </c>
       <c r="F201" t="s">
@@ -7356,19 +7421,19 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="2">
         <v>15140189667</v>
       </c>
-      <c r="C202" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="1">
+      <c r="C202" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2">
         <v>15140189667</v>
       </c>
-      <c r="E202" s="7">
+      <c r="E202" s="8">
         <v>29567</v>
       </c>
       <c r="F202" t="s">
@@ -7382,19 +7447,19 @@
       </c>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="2">
         <v>15940395388</v>
       </c>
-      <c r="C203" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="1">
+      <c r="C203" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2">
         <v>15940395388</v>
       </c>
-      <c r="E203" s="7">
+      <c r="E203" s="8">
         <v>29567</v>
       </c>
       <c r="F203" t="s">
@@ -7408,19 +7473,19 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="2">
         <v>13840495768</v>
       </c>
-      <c r="C204" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="1">
+      <c r="C204" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2">
         <v>13840495768</v>
       </c>
-      <c r="E204" s="7">
+      <c r="E204" s="8">
         <v>29567</v>
       </c>
       <c r="F204" t="s">
@@ -7434,19 +7499,19 @@
       </c>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="2">
         <v>13898853885</v>
       </c>
-      <c r="C205" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="1">
+      <c r="C205" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2">
         <v>13898853885</v>
       </c>
-      <c r="E205" s="7">
+      <c r="E205" s="8">
         <v>29567</v>
       </c>
       <c r="F205" t="s">
@@ -7460,19 +7525,19 @@
       </c>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="2">
         <v>15940325838</v>
       </c>
-      <c r="C206" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="1">
+      <c r="C206" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2">
         <v>15940325838</v>
       </c>
-      <c r="E206" s="7">
+      <c r="E206" s="8">
         <v>29567</v>
       </c>
       <c r="F206" t="s">
@@ -7486,19 +7551,19 @@
       </c>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="2">
         <v>15524150777</v>
       </c>
-      <c r="C207" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="1">
+      <c r="C207" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2">
         <v>15524150777</v>
       </c>
-      <c r="E207" s="7">
+      <c r="E207" s="8">
         <v>29567</v>
       </c>
       <c r="F207" t="s">
@@ -7512,19 +7577,19 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="2">
         <v>18802488308</v>
       </c>
-      <c r="C208" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="1">
+      <c r="C208" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2">
         <v>18802488308</v>
       </c>
-      <c r="E208" s="7">
+      <c r="E208" s="8">
         <v>29567</v>
       </c>
       <c r="F208" t="s">
@@ -7538,19 +7603,19 @@
       </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="2">
         <v>15242074995</v>
       </c>
-      <c r="C209" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="1">
+      <c r="C209" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2">
         <v>15242074995</v>
       </c>
-      <c r="E209" s="7">
+      <c r="E209" s="8">
         <v>29567</v>
       </c>
       <c r="F209" t="s">
@@ -7564,19 +7629,19 @@
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="2">
         <v>18204029969</v>
       </c>
-      <c r="C210" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="1">
+      <c r="C210" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2">
         <v>18204029969</v>
       </c>
-      <c r="E210" s="7">
+      <c r="E210" s="8">
         <v>29567</v>
       </c>
       <c r="F210" t="s">
@@ -7590,19 +7655,19 @@
       </c>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="2">
         <v>15640130388</v>
       </c>
-      <c r="C211" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="1">
+      <c r="C211" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2">
         <v>15640130388</v>
       </c>
-      <c r="E211" s="7">
+      <c r="E211" s="8">
         <v>29567</v>
       </c>
       <c r="F211" t="s">
@@ -7616,19 +7681,19 @@
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="2">
         <v>13897900357</v>
       </c>
-      <c r="C212" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="1">
+      <c r="C212" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2">
         <v>13897900357</v>
       </c>
-      <c r="E212" s="7">
+      <c r="E212" s="8">
         <v>29567</v>
       </c>
       <c r="F212" t="s">
@@ -7642,19 +7707,19 @@
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="2">
         <v>18842387255</v>
       </c>
-      <c r="C213" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="1">
+      <c r="C213" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2">
         <v>18842387255</v>
       </c>
-      <c r="E213" s="7">
+      <c r="E213" s="8">
         <v>29567</v>
       </c>
       <c r="F213" t="s">
@@ -7668,19 +7733,19 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="2">
         <v>13889830978</v>
       </c>
-      <c r="C214" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="1">
+      <c r="C214" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2">
         <v>13889830978</v>
       </c>
-      <c r="E214" s="7">
+      <c r="E214" s="8">
         <v>29567</v>
       </c>
       <c r="F214" t="s">
@@ -7694,19 +7759,19 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="12" t="s">
+      <c r="A215" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B215" s="13">
+      <c r="B215" s="14">
         <v>13998184433</v>
       </c>
-      <c r="C215" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="13">
+      <c r="C215" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="14">
         <v>13998184433</v>
       </c>
-      <c r="E215" s="7">
+      <c r="E215" s="8">
         <v>29567</v>
       </c>
       <c r="F215" t="s">
@@ -7720,19 +7785,19 @@
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="12" t="s">
+      <c r="A216" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="B216" s="13">
+      <c r="B216" s="14">
         <v>13889328623</v>
       </c>
-      <c r="C216" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="13">
+      <c r="C216" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="14">
         <v>13889328623</v>
       </c>
-      <c r="E216" s="7">
+      <c r="E216" s="8">
         <v>29567</v>
       </c>
       <c r="F216" t="s">
@@ -7746,19 +7811,19 @@
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="12" t="s">
+      <c r="A217" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B217" s="13">
+      <c r="B217" s="14">
         <v>13236636465</v>
       </c>
-      <c r="C217" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="13">
+      <c r="C217" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="14">
         <v>13236636465</v>
       </c>
-      <c r="E217" s="7">
+      <c r="E217" s="8">
         <v>29567</v>
       </c>
       <c r="F217" t="s">
@@ -7772,19 +7837,19 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="12" t="s">
+      <c r="A218" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B218" s="13">
+      <c r="B218" s="14">
         <v>13889249777</v>
       </c>
-      <c r="C218" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="13">
+      <c r="C218" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="14">
         <v>13889249777</v>
       </c>
-      <c r="E218" s="7">
+      <c r="E218" s="8">
         <v>29567</v>
       </c>
       <c r="F218" t="s">
@@ -7798,19 +7863,19 @@
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="12" t="s">
+      <c r="A219" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="B219" s="18" t="s">
+      <c r="B219" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C219" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="18" t="s">
+      <c r="C219" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="E219" s="7">
+      <c r="E219" s="8">
         <v>29567</v>
       </c>
       <c r="F219" t="s">
@@ -7824,19 +7889,19 @@
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="12" t="s">
+      <c r="A220" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B220" s="13">
+      <c r="B220" s="14">
         <v>15909834481</v>
       </c>
-      <c r="C220" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220" s="13">
+      <c r="C220" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="14">
         <v>15909834481</v>
       </c>
-      <c r="E220" s="7">
+      <c r="E220" s="8">
         <v>29567</v>
       </c>
       <c r="F220" t="s">
@@ -7850,19 +7915,19 @@
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="12" t="s">
+      <c r="A221" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B221" s="12">
+      <c r="B221" s="13">
         <v>15698832999</v>
       </c>
-      <c r="C221" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221" s="12">
+      <c r="C221" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="13">
         <v>15698832999</v>
       </c>
-      <c r="E221" s="7">
+      <c r="E221" s="8">
         <v>29567</v>
       </c>
       <c r="F221" t="s">
@@ -7876,19 +7941,19 @@
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="12" t="s">
+      <c r="A222" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="B222" s="13">
+      <c r="B222" s="14">
         <v>13840240340</v>
       </c>
-      <c r="C222" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="13">
+      <c r="C222" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="14">
         <v>13840240340</v>
       </c>
-      <c r="E222" s="7">
+      <c r="E222" s="8">
         <v>29567</v>
       </c>
       <c r="F222" t="s">
@@ -7902,19 +7967,19 @@
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="12" t="s">
+      <c r="A223" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="B223" s="13">
+      <c r="B223" s="14">
         <v>13940019444</v>
       </c>
-      <c r="C223" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="13">
+      <c r="C223" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="14">
         <v>13940019444</v>
       </c>
-      <c r="E223" s="7">
+      <c r="E223" s="8">
         <v>29567</v>
       </c>
       <c r="F223" t="s">
@@ -7928,19 +7993,19 @@
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="12" t="s">
+      <c r="A224" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="B224" s="13">
+      <c r="B224" s="14">
         <v>13066753675</v>
       </c>
-      <c r="C224" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="13">
+      <c r="C224" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="14">
         <v>13066753675</v>
       </c>
-      <c r="E224" s="7">
+      <c r="E224" s="8">
         <v>29567</v>
       </c>
       <c r="F224" t="s">
@@ -7954,19 +8019,19 @@
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="12" t="s">
+      <c r="A225" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="B225" s="13">
+      <c r="B225" s="14">
         <v>13897942678</v>
       </c>
-      <c r="C225" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="13">
+      <c r="C225" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="14">
         <v>13897942678</v>
       </c>
-      <c r="E225" s="7">
+      <c r="E225" s="8">
         <v>29567</v>
       </c>
       <c r="F225" t="s">
@@ -7980,19 +8045,19 @@
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="12" t="s">
+      <c r="A226" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="B226" s="13">
+      <c r="B226" s="14">
         <v>13704037125</v>
       </c>
-      <c r="C226" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="13">
+      <c r="C226" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="14">
         <v>13704037125</v>
       </c>
-      <c r="E226" s="7">
+      <c r="E226" s="8">
         <v>29567</v>
       </c>
       <c r="F226" t="s">
@@ -8006,19 +8071,19 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="12" t="s">
+      <c r="A227" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B227" s="13">
+      <c r="B227" s="14">
         <v>15909827991</v>
       </c>
-      <c r="C227" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="13">
+      <c r="C227" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="14">
         <v>15909827991</v>
       </c>
-      <c r="E227" s="7">
+      <c r="E227" s="8">
         <v>29567</v>
       </c>
       <c r="F227" t="s">
@@ -8032,19 +8097,19 @@
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="12" t="s">
+      <c r="A228" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B228" s="13">
+      <c r="B228" s="14">
         <v>13358864217</v>
       </c>
-      <c r="C228" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="13">
+      <c r="C228" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="14">
         <v>13358864217</v>
       </c>
-      <c r="E228" s="7">
+      <c r="E228" s="8">
         <v>29567</v>
       </c>
       <c r="F228" t="s">
@@ -8058,19 +8123,19 @@
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="12" t="s">
+      <c r="A229" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="B229" s="13">
+      <c r="B229" s="14">
         <v>13998306110</v>
       </c>
-      <c r="C229" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="13">
+      <c r="C229" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="14">
         <v>13998306110</v>
       </c>
-      <c r="E229" s="7">
+      <c r="E229" s="8">
         <v>29567</v>
       </c>
       <c r="F229" t="s">
@@ -8084,19 +8149,19 @@
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" s="12" t="s">
+      <c r="A230" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B230" s="13">
+      <c r="B230" s="14">
         <v>13840239222</v>
       </c>
-      <c r="C230" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="13">
+      <c r="C230" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="14">
         <v>13840239222</v>
       </c>
-      <c r="E230" s="7">
+      <c r="E230" s="8">
         <v>29567</v>
       </c>
       <c r="F230" t="s">
@@ -8110,19 +8175,19 @@
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="12" t="s">
+      <c r="A231" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B231" s="13">
+      <c r="B231" s="14">
         <v>15942303355</v>
       </c>
-      <c r="C231" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231" s="13">
+      <c r="C231" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="14">
         <v>15942303355</v>
       </c>
-      <c r="E231" s="7">
+      <c r="E231" s="8">
         <v>29567</v>
       </c>
       <c r="F231" t="s">
@@ -8136,19 +8201,19 @@
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232" s="2">
         <v>13644044725</v>
       </c>
-      <c r="C232" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="1">
+      <c r="C232" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2">
         <v>13644044725</v>
       </c>
-      <c r="E232" s="7">
+      <c r="E232" s="8">
         <v>29567</v>
       </c>
       <c r="F232" t="s">
@@ -8162,19 +8227,19 @@
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233" s="2">
         <v>13940584485</v>
       </c>
-      <c r="C233" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="1">
+      <c r="C233" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="2">
         <v>13940584485</v>
       </c>
-      <c r="E233" s="7">
+      <c r="E233" s="8">
         <v>29567</v>
       </c>
       <c r="F233" t="s">
@@ -8188,19 +8253,19 @@
       </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234" s="2">
         <v>13386821868</v>
       </c>
-      <c r="C234" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" s="1">
+      <c r="C234" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2">
         <v>13386821868</v>
       </c>
-      <c r="E234" s="7">
+      <c r="E234" s="8">
         <v>29567</v>
       </c>
       <c r="F234" t="s">
@@ -8214,19 +8279,19 @@
       </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235" s="2">
         <v>13032468338</v>
       </c>
-      <c r="C235" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="1">
+      <c r="C235" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2">
         <v>13032468338</v>
       </c>
-      <c r="E235" s="7">
+      <c r="E235" s="8">
         <v>29567</v>
       </c>
       <c r="F235" t="s">
@@ -8240,19 +8305,19 @@
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C236" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" s="1" t="s">
+      <c r="C236" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E236" s="7">
+      <c r="E236" s="8">
         <v>29567</v>
       </c>
       <c r="F236" t="s">
@@ -8266,19 +8331,19 @@
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237" s="2">
         <v>13664177135</v>
       </c>
-      <c r="C237" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="1">
+      <c r="C237" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2">
         <v>13664177135</v>
       </c>
-      <c r="E237" s="7">
+      <c r="E237" s="8">
         <v>29567</v>
       </c>
       <c r="F237" t="s">
@@ -8292,19 +8357,19 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238" s="2">
         <v>13840384018</v>
       </c>
-      <c r="C238" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="1">
+      <c r="C238" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="2">
         <v>13840384018</v>
       </c>
-      <c r="E238" s="7">
+      <c r="E238" s="8">
         <v>29567</v>
       </c>
       <c r="F238" t="s">
@@ -8318,19 +8383,19 @@
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239" s="2">
         <v>13898840565</v>
       </c>
-      <c r="C239" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" s="1">
+      <c r="C239" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="2">
         <v>13898840565</v>
       </c>
-      <c r="E239" s="7">
+      <c r="E239" s="8">
         <v>29567</v>
       </c>
       <c r="F239" t="s">
@@ -8344,19 +8409,19 @@
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240" s="2">
         <v>15809882235</v>
       </c>
-      <c r="C240" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" s="1">
+      <c r="C240" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2">
         <v>15809882235</v>
       </c>
-      <c r="E240" s="7">
+      <c r="E240" s="8">
         <v>29567</v>
       </c>
       <c r="F240" t="s">
@@ -8370,19 +8435,19 @@
       </c>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241" s="2">
         <v>15840069599</v>
       </c>
-      <c r="C241" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D241" s="1">
+      <c r="C241" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2">
         <v>15840069599</v>
       </c>
-      <c r="E241" s="7">
+      <c r="E241" s="8">
         <v>29567</v>
       </c>
       <c r="F241" t="s">
@@ -8396,19 +8461,19 @@
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242" s="2">
         <v>13840186528</v>
       </c>
-      <c r="C242" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D242" s="1">
+      <c r="C242" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="2">
         <v>13840186528</v>
       </c>
-      <c r="E242" s="7">
+      <c r="E242" s="8">
         <v>29567</v>
       </c>
       <c r="F242" t="s">
@@ -8422,19 +8487,19 @@
       </c>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243" s="2">
         <v>13591676199</v>
       </c>
-      <c r="C243" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D243" s="1">
+      <c r="C243" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="2">
         <v>13591676199</v>
       </c>
-      <c r="E243" s="7">
+      <c r="E243" s="8">
         <v>29567</v>
       </c>
       <c r="F243" t="s">
@@ -8448,19 +8513,19 @@
       </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244" s="2">
         <v>13840129433</v>
       </c>
-      <c r="C244" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D244" s="1">
+      <c r="C244" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" s="2">
         <v>13840129433</v>
       </c>
-      <c r="E244" s="7">
+      <c r="E244" s="8">
         <v>29567</v>
       </c>
       <c r="F244" t="s">
@@ -8474,19 +8539,19 @@
       </c>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245" s="2">
         <v>13274259111</v>
       </c>
-      <c r="C245" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D245" s="1">
+      <c r="C245" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="2">
         <v>13274259111</v>
       </c>
-      <c r="E245" s="7">
+      <c r="E245" s="8">
         <v>29567</v>
       </c>
       <c r="F245" t="s">
@@ -8499,17 +8564,343 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" ht="18.75" spans="8:8">
-      <c r="H247" s="15"/>
-    </row>
-    <row r="249" ht="18.75" spans="8:8">
-      <c r="H249" s="15"/>
-    </row>
-    <row r="251" ht="18.75" spans="8:8">
-      <c r="H251" s="15"/>
-    </row>
-    <row r="253" ht="18.75" spans="8:8">
-      <c r="H253" s="15"/>
+    <row r="246" s="1" customFormat="1" spans="1:8">
+      <c r="A246" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B246" s="16">
+        <v>15840550777</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="16">
+        <v>15840550777</v>
+      </c>
+      <c r="E246" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" s="1" customFormat="1" spans="1:8">
+      <c r="A247" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B247" s="16">
+        <v>13332488555</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" s="16">
+        <v>13332488555</v>
+      </c>
+      <c r="E247" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" s="1" customFormat="1" spans="1:8">
+      <c r="A248" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B248" s="16">
+        <v>13998863661</v>
+      </c>
+      <c r="C248" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="16">
+        <v>13998863661</v>
+      </c>
+      <c r="E248" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" s="1" customFormat="1" spans="1:8">
+      <c r="A249" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B249" s="16">
+        <v>15040077151</v>
+      </c>
+      <c r="C249" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="16">
+        <v>15040077151</v>
+      </c>
+      <c r="E249" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" s="1" customFormat="1" spans="1:8">
+      <c r="A250" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B250" s="16">
+        <v>19526108981</v>
+      </c>
+      <c r="C250" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="16">
+        <v>19526108981</v>
+      </c>
+      <c r="E250" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" s="1" customFormat="1" spans="1:8">
+      <c r="A251" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B251" s="19">
+        <v>17601268784</v>
+      </c>
+      <c r="C251" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="19">
+        <v>17601268784</v>
+      </c>
+      <c r="E251" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" s="1" customFormat="1" spans="1:8">
+      <c r="A252" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B252" s="19">
+        <v>18438577797</v>
+      </c>
+      <c r="C252" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" s="19">
+        <v>18438577797</v>
+      </c>
+      <c r="E252" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" s="1" customFormat="1" spans="1:8">
+      <c r="A253" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B253" s="19">
+        <v>18540061169</v>
+      </c>
+      <c r="C253" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" s="19">
+        <v>18540061169</v>
+      </c>
+      <c r="E253" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" s="1" customFormat="1" spans="1:8">
+      <c r="A254" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B254" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E254" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" s="1" customFormat="1" spans="1:8">
+      <c r="A255" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B255" s="19">
+        <v>15349261628</v>
+      </c>
+      <c r="C255" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="19">
+        <v>15349261628</v>
+      </c>
+      <c r="E255" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" s="1" customFormat="1" spans="1:8">
+      <c r="A256" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B256" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C256" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="E256" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" s="1" customFormat="1" spans="1:8">
+      <c r="A257" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B257" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C257" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="E257" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" s="1" customFormat="1" spans="1:8">
+      <c r="A258" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B258" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E258" s="18">
+        <v>29567</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/821.xlsx
+++ b/rules/821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>所在部门</t>
   </si>
   <si>
-    <t>李平</t>
+    <t>张无忌</t>
   </si>
   <si>
     <t>其他</t>
@@ -62,7 +62,7 @@
     <t>男</t>
   </si>
   <si>
-    <t>沈阳市教育局（督导处）</t>
+    <t>大东区二O二小学</t>
   </si>
   <si>
     <t>督导处</t>
@@ -1286,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1339,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15909838098</v>
+        <v>13458964523</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>15909838098</v>
+        <v>13458964523</v>
       </c>
       <c r="E3" s="9">
         <v>29567</v>

--- a/rules/821.xlsx
+++ b/rules/821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>所在部门</t>
   </si>
   <si>
-    <t>张无忌</t>
+    <t>倚天剑</t>
   </si>
   <si>
     <t>其他</t>
@@ -62,10 +62,10 @@
     <t>男</t>
   </si>
   <si>
-    <t>大东区二O二小学</t>
+    <t>沈阳市8月底01分校</t>
   </si>
   <si>
-    <t>督导处</t>
+    <t>学校</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1339,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>13458964523</v>
+        <v>15647896523</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>13458964523</v>
+        <v>15647896523</v>
       </c>
       <c r="E3" s="9">
         <v>29567</v>

--- a/rules/821.xlsx
+++ b/rules/821.xlsx
@@ -53,7 +53,7 @@
     <t>所在部门</t>
   </si>
   <si>
-    <t>倚天剑</t>
+    <t>雕兄</t>
   </si>
   <si>
     <t>其他</t>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1339,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15647896523</v>
+        <v>15647864578</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>15647896523</v>
+        <v>15647864578</v>
       </c>
       <c r="E3" s="9">
         <v>29567</v>

--- a/rules/821.xlsx
+++ b/rules/821.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>姓名</t>
   </si>
@@ -53,19 +53,43 @@
     <t>所在部门</t>
   </si>
   <si>
-    <t>雕兄</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>沈阳市8月底01分校</t>
-  </si>
-  <si>
-    <t>学校</t>
+    <t>身份类型</t>
+  </si>
+  <si>
+    <t>身份</t>
+  </si>
+  <si>
+    <t>华丽战国</t>
+  </si>
+  <si>
+    <t>居民身份证</t>
+  </si>
+  <si>
+    <t>210124198901010154</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>XX小学2</t>
+  </si>
+  <si>
+    <t>国际交流</t>
+  </si>
+  <si>
+    <t>教职工</t>
+  </si>
+  <si>
+    <t>小学专任教师</t>
+  </si>
+  <si>
+    <t>战国华丽</t>
+  </si>
+  <si>
+    <t>310104198901010154</t>
+  </si>
+  <si>
+    <t>红星小学22322223</t>
   </si>
 </sst>
 </file>
@@ -78,7 +102,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +126,14 @@
       <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -448,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -469,6 +501,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -589,137 +634,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,20 +789,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1284,13 +1347,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="65.6666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.8166666666667" style="2" customWidth="1"/>
@@ -1300,6 +1363,8 @@
     <col min="6" max="6" width="20.6833333333333" customWidth="1"/>
     <col min="7" max="7" width="36.4416666666667" customWidth="1"/>
     <col min="8" max="8" width="22.7333333333333" customWidth="1"/>
+    <col min="9" max="9" width="13.7333333333333" customWidth="1"/>
+    <col min="10" max="10" width="16.0416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:5">
@@ -1308,7 +1373,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" ht="20.25" spans="1:8">
+    <row r="2" ht="20.25" spans="1:10">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1318,117 +1383,154 @@
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>15647864578</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>15647864578</v>
-      </c>
-      <c r="E3" s="9">
-        <v>29567</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>18816925892</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="11">
+        <v>32874</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>18766925892</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="11">
+        <v>32874</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/821.xlsx
+++ b/rules/821.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="706">
   <si>
     <t>姓名</t>
   </si>
@@ -59,37 +59,2092 @@
     <t>身份</t>
   </si>
   <si>
-    <t>华丽战国</t>
+    <t>朱庆</t>
   </si>
   <si>
     <t>居民身份证</t>
   </si>
   <si>
-    <t>210124198901010154</t>
+    <t>210103197701010013</t>
+  </si>
+  <si>
+    <t>1977-01-01</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>沈阳市第二十八中学</t>
+  </si>
+  <si>
+    <t>国际交流</t>
+  </si>
+  <si>
+    <t>教职工</t>
+  </si>
+  <si>
+    <t>高中专任教师</t>
+  </si>
+  <si>
+    <t>朱楠</t>
+  </si>
+  <si>
+    <t>211422198211280222</t>
+  </si>
+  <si>
+    <t>1982-11-28</t>
   </si>
   <si>
     <t>女</t>
   </si>
   <si>
-    <t>XX小学2</t>
-  </si>
-  <si>
-    <t>国际交流</t>
-  </si>
-  <si>
-    <t>教职工</t>
+    <t>沈阳市垚为学校</t>
+  </si>
+  <si>
+    <t>完全中学专任教师</t>
+  </si>
+  <si>
+    <t>周芷伊</t>
+  </si>
+  <si>
+    <t>210105198110213721</t>
+  </si>
+  <si>
+    <t>1981-10-21</t>
+  </si>
+  <si>
+    <t>沈阳市第四十三中学</t>
+  </si>
+  <si>
+    <t>初中专任教师</t>
+  </si>
+  <si>
+    <t>周妍</t>
+  </si>
+  <si>
+    <t>210423198302220028</t>
+  </si>
+  <si>
+    <t>1983-02-22</t>
+  </si>
+  <si>
+    <t>沈阳市中山私立学校</t>
+  </si>
+  <si>
+    <t>周庆昕</t>
+  </si>
+  <si>
+    <t>210106197310182124</t>
+  </si>
+  <si>
+    <t>1973-10-18</t>
+  </si>
+  <si>
+    <t>沈阳市铁西区兴工街第四小学</t>
   </si>
   <si>
     <t>小学专任教师</t>
   </si>
   <si>
-    <t>战国华丽</t>
-  </si>
-  <si>
-    <t>310104198901010154</t>
-  </si>
-  <si>
-    <t>红星小学22322223</t>
+    <t>周福强</t>
+  </si>
+  <si>
+    <t>210103196907312717</t>
+  </si>
+  <si>
+    <t>1969-07-31</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区文化路小学</t>
+  </si>
+  <si>
+    <t>钟楠</t>
+  </si>
+  <si>
+    <t>210112198202264044</t>
+  </si>
+  <si>
+    <t>1982-02-26</t>
+  </si>
+  <si>
+    <t>沈阳市浑南区第一小学</t>
+  </si>
+  <si>
+    <t>郑稚辉</t>
+  </si>
+  <si>
+    <t>210105198211034626</t>
+  </si>
+  <si>
+    <t>1982-11-03</t>
+  </si>
+  <si>
+    <t>郑明露</t>
+  </si>
+  <si>
+    <t>210111198510263020</t>
+  </si>
+  <si>
+    <t>1985-10-26</t>
+  </si>
+  <si>
+    <t>沈阳市和平区南京街第一小学长白岛一分校</t>
+  </si>
+  <si>
+    <t>郑洁</t>
+  </si>
+  <si>
+    <t>210105197902023729</t>
+  </si>
+  <si>
+    <t>1979-02-02</t>
+  </si>
+  <si>
+    <t>沈阳市培英中学</t>
+  </si>
+  <si>
+    <t>郑洪亮</t>
+  </si>
+  <si>
+    <t>210521197912290777</t>
+  </si>
+  <si>
+    <t>1979-12-29</t>
+  </si>
+  <si>
+    <t>新民市高级中学</t>
+  </si>
+  <si>
+    <t>赵颖</t>
+  </si>
+  <si>
+    <t>210112197011230242</t>
+  </si>
+  <si>
+    <t>1970-11-23</t>
+  </si>
+  <si>
+    <t>沈阳农业大学附属小学</t>
+  </si>
+  <si>
+    <t>赵续</t>
+  </si>
+  <si>
+    <t>210104198002110315</t>
+  </si>
+  <si>
+    <t>1980-02-11</t>
+  </si>
+  <si>
+    <t>沈阳市第一０七中学</t>
+  </si>
+  <si>
+    <t>赵明</t>
+  </si>
+  <si>
+    <t>21010319711118032X</t>
+  </si>
+  <si>
+    <t>1971-11-18</t>
+  </si>
+  <si>
+    <t>沈阳市第一六五中学</t>
+  </si>
+  <si>
+    <t>赵嘉鑫</t>
+  </si>
+  <si>
+    <t>220402197601123119</t>
+  </si>
+  <si>
+    <t>1976-01-12</t>
+  </si>
+  <si>
+    <t>沈阳市第五十六中学</t>
+  </si>
+  <si>
+    <t>赵春英</t>
+  </si>
+  <si>
+    <t>210112197305063427</t>
+  </si>
+  <si>
+    <t>1973-05-06</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区泉园第二小学</t>
+  </si>
+  <si>
+    <t>张艳平</t>
+  </si>
+  <si>
+    <t>210114196505050346</t>
+  </si>
+  <si>
+    <t>1965-05-05</t>
+  </si>
+  <si>
+    <t>沈阳市于洪区于台小学</t>
+  </si>
+  <si>
+    <t>张艳丽</t>
+  </si>
+  <si>
+    <t>210103197002054842</t>
+  </si>
+  <si>
+    <t>1970-02-05</t>
+  </si>
+  <si>
+    <t>沈阳市皇姑区童晖小学</t>
+  </si>
+  <si>
+    <t>21091119730616004X</t>
+  </si>
+  <si>
+    <t>1973-06-16</t>
+  </si>
+  <si>
+    <t>沈阳市第八十二中学</t>
+  </si>
+  <si>
+    <t>张艳华</t>
+  </si>
+  <si>
+    <t>210281199703244028</t>
+  </si>
+  <si>
+    <t>1997-03-24</t>
+  </si>
+  <si>
+    <t>沈阳市沈水实验学校</t>
+  </si>
+  <si>
+    <t>九年一贯制学校专任教师</t>
+  </si>
+  <si>
+    <t>张雪</t>
+  </si>
+  <si>
+    <t>210121197812164923</t>
+  </si>
+  <si>
+    <t>1978-12-16</t>
+  </si>
+  <si>
+    <t>新民市兴隆学校</t>
+  </si>
+  <si>
+    <t>张巍</t>
+  </si>
+  <si>
+    <t>210114197508161222</t>
+  </si>
+  <si>
+    <t>1975-08-16</t>
+  </si>
+  <si>
+    <t>辽宁省实验中学分校</t>
+  </si>
+  <si>
+    <t>张嵩</t>
+  </si>
+  <si>
+    <t>21010619831126402X</t>
+  </si>
+  <si>
+    <t>1983-11-26</t>
+  </si>
+  <si>
+    <t>沈阳市广全学校</t>
+  </si>
+  <si>
+    <t>十二年一贯制学校专任教师</t>
+  </si>
+  <si>
+    <t>张爽</t>
+  </si>
+  <si>
+    <t>210102198008104124</t>
+  </si>
+  <si>
+    <t>1980-08-10</t>
+  </si>
+  <si>
+    <t>沈阳市南昌新世界学校（沈阳市第九十一中学）</t>
+  </si>
+  <si>
+    <t>张树刚</t>
+  </si>
+  <si>
+    <t>210105197008064358</t>
+  </si>
+  <si>
+    <t>1970-08-06</t>
+  </si>
+  <si>
+    <t>沈阳市教育局</t>
+  </si>
+  <si>
+    <t>教育单位职工</t>
+  </si>
+  <si>
+    <t>张舒琦</t>
+  </si>
+  <si>
+    <t>210503199407020625</t>
+  </si>
+  <si>
+    <t>1994-07-02</t>
+  </si>
+  <si>
+    <t>沈阳市苏家屯区文化路小学</t>
+  </si>
+  <si>
+    <t>张美琳</t>
+  </si>
+  <si>
+    <t>210904199505301525</t>
+  </si>
+  <si>
+    <t>1995-05-30</t>
+  </si>
+  <si>
+    <t>东北育才悲鸿美术学校</t>
+  </si>
+  <si>
+    <t>张力</t>
+  </si>
+  <si>
+    <t>210102197305152822</t>
+  </si>
+  <si>
+    <t>1973-05-15</t>
+  </si>
+  <si>
+    <t>和平区教育局</t>
+  </si>
+  <si>
+    <t>张静</t>
+  </si>
+  <si>
+    <t>210105197610174920</t>
+  </si>
+  <si>
+    <t>1976-10-17</t>
+  </si>
+  <si>
+    <t>沈阳市皇姑区珠江街第五小学</t>
+  </si>
+  <si>
+    <t>张博</t>
+  </si>
+  <si>
+    <t>210106198708181222</t>
+  </si>
+  <si>
+    <t>1987-08-18</t>
+  </si>
+  <si>
+    <t>沈阳市第七十六中学</t>
+  </si>
+  <si>
+    <t>云艳枝</t>
+  </si>
+  <si>
+    <t>210821197008032127</t>
+  </si>
+  <si>
+    <t>1970-08-03</t>
+  </si>
+  <si>
+    <t>沈阳市浑南区第四中学</t>
+  </si>
+  <si>
+    <t>岳恒楠</t>
+  </si>
+  <si>
+    <t>210104198503064644</t>
+  </si>
+  <si>
+    <t>1985-03-06</t>
+  </si>
+  <si>
+    <t>沈阳市翔宇中学</t>
+  </si>
+  <si>
+    <t>于淼</t>
+  </si>
+  <si>
+    <t>210114198109075129</t>
+  </si>
+  <si>
+    <t>1981-09-07</t>
+  </si>
+  <si>
+    <t>沈阳市于洪区东北英才学校</t>
+  </si>
+  <si>
+    <t>于蕾</t>
+  </si>
+  <si>
+    <t>210102198412194125</t>
+  </si>
+  <si>
+    <t>1984-12-19</t>
+  </si>
+  <si>
+    <t>辽宁省实验中学阳光小学</t>
+  </si>
+  <si>
+    <t>于俊华</t>
+  </si>
+  <si>
+    <t>21142219790905293X</t>
+  </si>
+  <si>
+    <t>1979-09-05</t>
+  </si>
+  <si>
+    <t>沈阳市博才初级中学</t>
+  </si>
+  <si>
+    <t>于海龙</t>
+  </si>
+  <si>
+    <t>210703197804212438</t>
+  </si>
+  <si>
+    <t>1978-04-21</t>
+  </si>
+  <si>
+    <t>沈阳师范大学第二附属学校</t>
+  </si>
+  <si>
+    <t>尹哲</t>
+  </si>
+  <si>
+    <t>21010319740927242X</t>
+  </si>
+  <si>
+    <t>1974-09-27</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区文艺路第二小学</t>
+  </si>
+  <si>
+    <t>尹丽华</t>
+  </si>
+  <si>
+    <t>210111197307114623</t>
+  </si>
+  <si>
+    <t>1973-07-11</t>
+  </si>
+  <si>
+    <t>沈阳市苏家屯区陈相九年一贯制学校</t>
+  </si>
+  <si>
+    <t>杨忠利</t>
+  </si>
+  <si>
+    <t>211224197605171210</t>
+  </si>
+  <si>
+    <t>1976-05-17</t>
+  </si>
+  <si>
+    <t>沈阳市第二十一中学</t>
+  </si>
+  <si>
+    <t>杨勇</t>
+  </si>
+  <si>
+    <t>210421197905140214</t>
+  </si>
+  <si>
+    <t>1979-05-14</t>
+  </si>
+  <si>
+    <t>沈阳市第十七中学</t>
+  </si>
+  <si>
+    <t>杨阳</t>
+  </si>
+  <si>
+    <t>210105198006124024</t>
+  </si>
+  <si>
+    <t>1980-06-12</t>
+  </si>
+  <si>
+    <t>沈阳市外事服务学校</t>
+  </si>
+  <si>
+    <t>中等职业学校专任教师</t>
+  </si>
+  <si>
+    <t>杨颜璘</t>
+  </si>
+  <si>
+    <t>210106198805244328</t>
+  </si>
+  <si>
+    <t>1988-05-24</t>
+  </si>
+  <si>
+    <t>沈阳市浑南区第五小学</t>
+  </si>
+  <si>
+    <t>杨晓冬</t>
+  </si>
+  <si>
+    <t>210102198512185322</t>
+  </si>
+  <si>
+    <t>1985-12-18</t>
+  </si>
+  <si>
+    <t>浑南区教育局</t>
+  </si>
+  <si>
+    <t>杨小丹</t>
+  </si>
+  <si>
+    <t>210111198112170021</t>
+  </si>
+  <si>
+    <t>1981-12-17</t>
+  </si>
+  <si>
+    <t>杨潇</t>
+  </si>
+  <si>
+    <t>210124198302260425</t>
+  </si>
+  <si>
+    <t>1983-02-26</t>
+  </si>
+  <si>
+    <t>法库县实验小学</t>
+  </si>
+  <si>
+    <t>杨卿</t>
+  </si>
+  <si>
+    <t>150402198302272719</t>
+  </si>
+  <si>
+    <t>1983-02-27</t>
+  </si>
+  <si>
+    <t>东北育才学校</t>
+  </si>
+  <si>
+    <t>杨会华</t>
+  </si>
+  <si>
+    <t>210381199803123421</t>
+  </si>
+  <si>
+    <t>1998-03-12</t>
+  </si>
+  <si>
+    <t>沈阳市实验学校旭东中学</t>
+  </si>
+  <si>
+    <t>沈阳市实验学校</t>
+  </si>
+  <si>
+    <t>杨光</t>
+  </si>
+  <si>
+    <t>210104197810173117</t>
+  </si>
+  <si>
+    <t>1978-10-17</t>
+  </si>
+  <si>
+    <t>大东区教育局</t>
+  </si>
+  <si>
+    <t>杨凤明</t>
+  </si>
+  <si>
+    <t>210726198303206514</t>
+  </si>
+  <si>
+    <t>1983-03-20</t>
+  </si>
+  <si>
+    <t>沈阳市第二中学</t>
+  </si>
+  <si>
+    <t>薛宁宁</t>
+  </si>
+  <si>
+    <t>230203198408221000</t>
+  </si>
+  <si>
+    <t>1984-08-22</t>
+  </si>
+  <si>
+    <t>沈河区教育局</t>
+  </si>
+  <si>
+    <t>许颖</t>
+  </si>
+  <si>
+    <t>210104197401110940</t>
+  </si>
+  <si>
+    <t>1974-01-11</t>
+  </si>
+  <si>
+    <t>沈阳市第二十六中学</t>
+  </si>
+  <si>
+    <t>许鑫</t>
+  </si>
+  <si>
+    <t>211402199402216169</t>
+  </si>
+  <si>
+    <t>1994-02-21</t>
+  </si>
+  <si>
+    <t>辽宁大学附属实验学校</t>
+  </si>
+  <si>
+    <t>徐琳</t>
+  </si>
+  <si>
+    <t>210283199807115522</t>
+  </si>
+  <si>
+    <t>1998-07-11</t>
+  </si>
+  <si>
+    <t>新民市教育局</t>
+  </si>
+  <si>
+    <t>邢启岩</t>
+  </si>
+  <si>
+    <t>210103197405254822</t>
+  </si>
+  <si>
+    <t>1974-05-25</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区二经街第二小学</t>
+  </si>
+  <si>
+    <t>夏艳玲</t>
+  </si>
+  <si>
+    <t>211225197209120020</t>
+  </si>
+  <si>
+    <t>1972-09-12</t>
+  </si>
+  <si>
+    <t>康平县含光小学</t>
+  </si>
+  <si>
+    <t>吴婷</t>
+  </si>
+  <si>
+    <t>210103198812071825</t>
+  </si>
+  <si>
+    <t>1988-12-07</t>
+  </si>
+  <si>
+    <t>沈阳市浑南区第八小学</t>
+  </si>
+  <si>
+    <t>王子健</t>
+  </si>
+  <si>
+    <t>210403199110205543</t>
+  </si>
+  <si>
+    <t>1991-10-20</t>
+  </si>
+  <si>
+    <t>沈阳市浑南区第十一小学</t>
+  </si>
+  <si>
+    <t>王元华</t>
+  </si>
+  <si>
+    <t>210111198002012524</t>
+  </si>
+  <si>
+    <t>1980-02-01</t>
+  </si>
+  <si>
+    <t>沈阳市第七中学附属小学</t>
+  </si>
+  <si>
+    <t>王宇锋</t>
+  </si>
+  <si>
+    <t>210103198710214557</t>
+  </si>
+  <si>
+    <t>1987-10-21</t>
+  </si>
+  <si>
+    <t>王瑜</t>
+  </si>
+  <si>
+    <t>211003198101150848</t>
+  </si>
+  <si>
+    <t>1981-01-15</t>
+  </si>
+  <si>
+    <t>沈阳市第七中学</t>
+  </si>
+  <si>
+    <t>王鑫蕊</t>
+  </si>
+  <si>
+    <t>210102199302122221</t>
+  </si>
+  <si>
+    <t>1993-02-12</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区文艺路第二小学沈北分校</t>
+  </si>
+  <si>
+    <t>王玮</t>
+  </si>
+  <si>
+    <t>210105197002132235</t>
+  </si>
+  <si>
+    <t>1970-02-13</t>
+  </si>
+  <si>
+    <t>王敏</t>
+  </si>
+  <si>
+    <t>210103197403233921</t>
+  </si>
+  <si>
+    <t>1974-03-23</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区文萃小学</t>
+  </si>
+  <si>
+    <t>王璐璐</t>
+  </si>
+  <si>
+    <t>230122199201270021</t>
+  </si>
+  <si>
+    <t>1992-01-27</t>
+  </si>
+  <si>
+    <t>苏家屯区教育局</t>
+  </si>
+  <si>
+    <t>王丽虹</t>
+  </si>
+  <si>
+    <t>210404198411102427</t>
+  </si>
+  <si>
+    <t>1984-11-10</t>
+  </si>
+  <si>
+    <t>王凯</t>
+  </si>
+  <si>
+    <t>210104197812110312</t>
+  </si>
+  <si>
+    <t>1978-12-11</t>
+  </si>
+  <si>
+    <t>沈阳市尚品学校</t>
+  </si>
+  <si>
+    <t>王佳</t>
+  </si>
+  <si>
+    <t>211382198608101326</t>
+  </si>
+  <si>
+    <t>1986-08-10</t>
+  </si>
+  <si>
+    <t>沈阳市崇文中学</t>
+  </si>
+  <si>
+    <t>王冬蕊</t>
+  </si>
+  <si>
+    <t>21010619891212214X</t>
+  </si>
+  <si>
+    <t>1989-12-12</t>
+  </si>
+  <si>
+    <t>王丹</t>
+  </si>
+  <si>
+    <t>210103197812223644</t>
+  </si>
+  <si>
+    <t>1978-12-22</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区大南街第一小学</t>
+  </si>
+  <si>
+    <t>王翠镯</t>
+  </si>
+  <si>
+    <t>210102197211095628</t>
+  </si>
+  <si>
+    <t>1972-11-09</t>
+  </si>
+  <si>
+    <t>沈阳市外国语学校</t>
+  </si>
+  <si>
+    <t>田甜</t>
+  </si>
+  <si>
+    <t>210104198308045245</t>
+  </si>
+  <si>
+    <t>1983-08-04</t>
+  </si>
+  <si>
+    <t>唐静哲</t>
+  </si>
+  <si>
+    <t>219004197510272220</t>
+  </si>
+  <si>
+    <t>1975-10-27</t>
+  </si>
+  <si>
+    <t>孙宇</t>
+  </si>
+  <si>
+    <t>210105196706263413</t>
+  </si>
+  <si>
+    <t>1967-06-26</t>
+  </si>
+  <si>
+    <t>沈阳市私立实验学校</t>
+  </si>
+  <si>
+    <t>孙雪花</t>
+  </si>
+  <si>
+    <t>210403197411281524</t>
+  </si>
+  <si>
+    <t>1974-11-28</t>
+  </si>
+  <si>
+    <t>辽宁省实验学校赤山校区</t>
+  </si>
+  <si>
+    <t>孙书博</t>
+  </si>
+  <si>
+    <t>210121197101308011</t>
+  </si>
+  <si>
+    <t>1971-01-30</t>
+  </si>
+  <si>
+    <t>新民市实验中学</t>
+  </si>
+  <si>
+    <t>孙丽杰</t>
+  </si>
+  <si>
+    <t>210104197305210722</t>
+  </si>
+  <si>
+    <t>1973-05-21</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区万莲小学</t>
+  </si>
+  <si>
+    <t>孙刚</t>
+  </si>
+  <si>
+    <t>210105197503243716</t>
+  </si>
+  <si>
+    <t>1975-03-24</t>
+  </si>
+  <si>
+    <t>沈阳市轻工艺术学校</t>
+  </si>
+  <si>
+    <t>孙冬</t>
+  </si>
+  <si>
+    <t>211224199012065526</t>
+  </si>
+  <si>
+    <t>1990-12-06</t>
+  </si>
+  <si>
+    <t>沈北新区教育局</t>
+  </si>
+  <si>
+    <t>苏绍云</t>
+  </si>
+  <si>
+    <t>210181197911128027</t>
+  </si>
+  <si>
+    <t>1979-11-12</t>
+  </si>
+  <si>
+    <t>康平县教育局</t>
+  </si>
+  <si>
+    <t>宋岩</t>
+  </si>
+  <si>
+    <t>210102197302110029</t>
+  </si>
+  <si>
+    <t>1973-02-11</t>
+  </si>
+  <si>
+    <t>石静宇</t>
+  </si>
+  <si>
+    <t>210724199808071629</t>
+  </si>
+  <si>
+    <t>1998-08-07</t>
+  </si>
+  <si>
+    <t>北京师范大学沈阳附属学校</t>
+  </si>
+  <si>
+    <t>石娇</t>
+  </si>
+  <si>
+    <t>210113198708100561</t>
+  </si>
+  <si>
+    <t>1987-08-10</t>
+  </si>
+  <si>
+    <t>石佳玉</t>
+  </si>
+  <si>
+    <t>210902199503211021</t>
+  </si>
+  <si>
+    <t>1995-03-21</t>
+  </si>
+  <si>
+    <t>盛大江</t>
+  </si>
+  <si>
+    <t>210222197009123411</t>
+  </si>
+  <si>
+    <t>1970-09-12</t>
+  </si>
+  <si>
+    <t>沈阳市同泽女子中学</t>
+  </si>
+  <si>
+    <t>尚芳宇</t>
+  </si>
+  <si>
+    <t>210103197908026047</t>
+  </si>
+  <si>
+    <t>1979-08-02</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区育鹏小学</t>
+  </si>
+  <si>
+    <t>任瑞岩</t>
+  </si>
+  <si>
+    <t>210113198306181696</t>
+  </si>
+  <si>
+    <t>1983-06-18</t>
+  </si>
+  <si>
+    <t>沈阳市沈北新区虎石台第二小学</t>
+  </si>
+  <si>
+    <t>乔晓牧</t>
+  </si>
+  <si>
+    <t>210105197705234922</t>
+  </si>
+  <si>
+    <t>1977-05-23</t>
+  </si>
+  <si>
+    <t>皇姑区教育局</t>
+  </si>
+  <si>
+    <t>齐佳</t>
+  </si>
+  <si>
+    <t>210124198410011047</t>
+  </si>
+  <si>
+    <t>1984-10-01</t>
+  </si>
+  <si>
+    <t>沈阳市法库县石桥小学</t>
+  </si>
+  <si>
+    <t>庞丹</t>
+  </si>
+  <si>
+    <t>210102197108101225</t>
+  </si>
+  <si>
+    <t>1971-08-10</t>
+  </si>
+  <si>
+    <t>沈阳市和平区团结路小学</t>
+  </si>
+  <si>
+    <t>潘智杰</t>
+  </si>
+  <si>
+    <t>210281199810011545</t>
+  </si>
+  <si>
+    <t>1998-10-01</t>
+  </si>
+  <si>
+    <t>沈阳市尚品东越学校</t>
+  </si>
+  <si>
+    <t>牛凯峰</t>
+  </si>
+  <si>
+    <t>210703197911023616</t>
+  </si>
+  <si>
+    <t>1979-11-02</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>210103198306263322</t>
+  </si>
+  <si>
+    <t>1983-06-26</t>
+  </si>
+  <si>
+    <t>沈阳市七中五里河学校</t>
+  </si>
+  <si>
+    <t>孟心悦</t>
+  </si>
+  <si>
+    <t>21010519970315432X</t>
+  </si>
+  <si>
+    <t>1997-03-15</t>
+  </si>
+  <si>
+    <t>大东区静美小学</t>
+  </si>
+  <si>
+    <t>马永鹤</t>
+  </si>
+  <si>
+    <t>210103197902174241</t>
+  </si>
+  <si>
+    <t>1979-02-17</t>
+  </si>
+  <si>
+    <t>沈阳市回族小学</t>
+  </si>
+  <si>
+    <t>马轶民</t>
+  </si>
+  <si>
+    <t>21010419841101341X</t>
+  </si>
+  <si>
+    <t>1984-11-01</t>
+  </si>
+  <si>
+    <t>沈阳市法库县第二高级中学</t>
+  </si>
+  <si>
+    <t>马骏骅</t>
+  </si>
+  <si>
+    <t>211224199304109025</t>
+  </si>
+  <si>
+    <t>1993-04-10</t>
+  </si>
+  <si>
+    <t>新民市城南小学</t>
+  </si>
+  <si>
+    <t>马驰</t>
+  </si>
+  <si>
+    <t>210281199512071742</t>
+  </si>
+  <si>
+    <t>1995-12-07</t>
+  </si>
+  <si>
+    <t>沈阳市铁西区勋望小学中央大街分校</t>
+  </si>
+  <si>
+    <t>吕新春</t>
+  </si>
+  <si>
+    <t>211422199412094834</t>
+  </si>
+  <si>
+    <t>1994-12-09</t>
+  </si>
+  <si>
+    <t>沈阳铁路第三小学</t>
+  </si>
+  <si>
+    <t>罗文峰</t>
+  </si>
+  <si>
+    <t>21010219760614341X</t>
+  </si>
+  <si>
+    <t>1976-06-14</t>
+  </si>
+  <si>
+    <t>卢皓</t>
+  </si>
+  <si>
+    <t>210106198811172439</t>
+  </si>
+  <si>
+    <t>1988-11-17</t>
+  </si>
+  <si>
+    <t>沈阳市铁西区腾飞街第一小学</t>
+  </si>
+  <si>
+    <t>刘志会</t>
+  </si>
+  <si>
+    <t>210121197306078344</t>
+  </si>
+  <si>
+    <t>1973-06-07</t>
+  </si>
+  <si>
+    <t>新民市城区第四小学</t>
+  </si>
+  <si>
+    <t>刘媛媛</t>
+  </si>
+  <si>
+    <t>210603198304230540</t>
+  </si>
+  <si>
+    <t>1983-04-23</t>
+  </si>
+  <si>
+    <t>沈阳市浑南区第五初级中学</t>
+  </si>
+  <si>
+    <t>刘娅男</t>
+  </si>
+  <si>
+    <t>210104198306282028</t>
+  </si>
+  <si>
+    <t>1983-06-28</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区朝阳街第一小学</t>
+  </si>
+  <si>
+    <t>刘旭</t>
+  </si>
+  <si>
+    <t>231005198806041015</t>
+  </si>
+  <si>
+    <t>1988-06-04</t>
+  </si>
+  <si>
+    <t>于洪区教育局</t>
+  </si>
+  <si>
+    <t>刘秀</t>
+  </si>
+  <si>
+    <t>210222198003277828</t>
+  </si>
+  <si>
+    <t>1980-03-27</t>
+  </si>
+  <si>
+    <t>沈阳市绿岛学校</t>
+  </si>
+  <si>
+    <t>刘铁军</t>
+  </si>
+  <si>
+    <t>211324197708035612</t>
+  </si>
+  <si>
+    <t>1977-08-03</t>
+  </si>
+  <si>
+    <t>铁西区教育局</t>
+  </si>
+  <si>
+    <t>刘姝</t>
+  </si>
+  <si>
+    <t>210105197507010629</t>
+  </si>
+  <si>
+    <t>1975-07-01</t>
+  </si>
+  <si>
+    <t>沈阳市第一百二十中学</t>
+  </si>
+  <si>
+    <t>刘宁</t>
+  </si>
+  <si>
+    <t>210104197601150920</t>
+  </si>
+  <si>
+    <t>1976-01-15</t>
+  </si>
+  <si>
+    <t>沈阳市盛京小学</t>
+  </si>
+  <si>
+    <t>刘明华</t>
+  </si>
+  <si>
+    <t>210111197201220540</t>
+  </si>
+  <si>
+    <t>1972-01-22</t>
+  </si>
+  <si>
+    <t>沈阳市苏家屯区朝鲜族中心小学</t>
+  </si>
+  <si>
+    <t>刘莉</t>
+  </si>
+  <si>
+    <t>21010319701130302X</t>
+  </si>
+  <si>
+    <t>1970-11-30</t>
+  </si>
+  <si>
+    <t>刘利</t>
+  </si>
+  <si>
+    <t>210114197404190029</t>
+  </si>
+  <si>
+    <t>1974-04-19</t>
+  </si>
+  <si>
+    <t>刘黎黎</t>
+  </si>
+  <si>
+    <t>210103167107243041</t>
+  </si>
+  <si>
+    <t>1671-07-24</t>
+  </si>
+  <si>
+    <t>沈阳市和平区南京街第九小学</t>
+  </si>
+  <si>
+    <t>刘浩</t>
+  </si>
+  <si>
+    <t>210105197307283411</t>
+  </si>
+  <si>
+    <t>1973-07-28</t>
+  </si>
+  <si>
+    <t>沈阳市第二十四中学</t>
+  </si>
+  <si>
+    <t>刘程程</t>
+  </si>
+  <si>
+    <t>210103198305204240</t>
+  </si>
+  <si>
+    <t>1983-05-20</t>
+  </si>
+  <si>
+    <t>林月</t>
+  </si>
+  <si>
+    <t>230122199108104520</t>
+  </si>
+  <si>
+    <t>1991-08-10</t>
+  </si>
+  <si>
+    <t>沈阳市育源中学东兴学校</t>
+  </si>
+  <si>
+    <t>梁雪</t>
+  </si>
+  <si>
+    <t>210104198707184023</t>
+  </si>
+  <si>
+    <t>1987-07-18</t>
+  </si>
+  <si>
+    <t>沈阳市浑南区第四小学</t>
+  </si>
+  <si>
+    <t>梁丹</t>
+  </si>
+  <si>
+    <t>210103198007190047</t>
+  </si>
+  <si>
+    <t>1980-07-19</t>
+  </si>
+  <si>
+    <t>李志</t>
+  </si>
+  <si>
+    <t>210181198807200919</t>
+  </si>
+  <si>
+    <t>1988-07-20</t>
+  </si>
+  <si>
+    <t>沈阳市于洪区大兴九年一贯制学校</t>
+  </si>
+  <si>
+    <t>李颖</t>
+  </si>
+  <si>
+    <t>210121196809198060</t>
+  </si>
+  <si>
+    <t>1968-09-19</t>
+  </si>
+  <si>
+    <t>沈阳市第一二七中学</t>
+  </si>
+  <si>
+    <t>李盈盈</t>
+  </si>
+  <si>
+    <t>211481199006095823</t>
+  </si>
+  <si>
+    <t>1990-06-09</t>
+  </si>
+  <si>
+    <t>沈阳市于洪区川江小学</t>
+  </si>
+  <si>
+    <t>李银香</t>
+  </si>
+  <si>
+    <t>210114197705053327</t>
+  </si>
+  <si>
+    <t>1977-05-05</t>
+  </si>
+  <si>
+    <t>沈阳市于洪区朝鲜族吴家荒中心小学</t>
+  </si>
+  <si>
+    <t>李岩</t>
+  </si>
+  <si>
+    <t>210106197808141223</t>
+  </si>
+  <si>
+    <t>1978-08-14</t>
+  </si>
+  <si>
+    <t>沈阳市铁西区雏鹰实验小学</t>
+  </si>
+  <si>
+    <t>李雪</t>
+  </si>
+  <si>
+    <t>22088219800307452X</t>
+  </si>
+  <si>
+    <t>1980-03-07</t>
+  </si>
+  <si>
+    <t>东北育才外国语学校</t>
+  </si>
+  <si>
+    <t>李爽</t>
+  </si>
+  <si>
+    <t>210922199402034826</t>
+  </si>
+  <si>
+    <t>1994-02-03</t>
+  </si>
+  <si>
+    <t>沈阳市铁西区雏鹰小学</t>
+  </si>
+  <si>
+    <t>李明静</t>
+  </si>
+  <si>
+    <t>21080419770914052X</t>
+  </si>
+  <si>
+    <t>1977-09-14</t>
+  </si>
+  <si>
+    <t>李阔</t>
+  </si>
+  <si>
+    <t>210882198912026427</t>
+  </si>
+  <si>
+    <t>1989-12-02</t>
+  </si>
+  <si>
+    <t>李海霞</t>
+  </si>
+  <si>
+    <t>210102197909084429</t>
+  </si>
+  <si>
+    <t>1979-09-08</t>
+  </si>
+  <si>
+    <t>沈阳市和平区南京街第三小学</t>
+  </si>
+  <si>
+    <t>李成森</t>
+  </si>
+  <si>
+    <t>210122197004202115</t>
+  </si>
+  <si>
+    <t>1970-04-20</t>
+  </si>
+  <si>
+    <t>沈阳市辽中区第二初级中学</t>
+  </si>
+  <si>
+    <t>李彬</t>
+  </si>
+  <si>
+    <t>210112197908261844</t>
+  </si>
+  <si>
+    <t>1979-08-26</t>
+  </si>
+  <si>
+    <t>李宝华</t>
+  </si>
+  <si>
+    <t>210881198909162288</t>
+  </si>
+  <si>
+    <t>1989-09-16</t>
+  </si>
+  <si>
+    <t>沈阳市沈北新区新城子街第二小学</t>
+  </si>
+  <si>
+    <t>康琦</t>
+  </si>
+  <si>
+    <t>210112197804171828</t>
+  </si>
+  <si>
+    <t>1978-04-17</t>
+  </si>
+  <si>
+    <t>沈阳市浑南区第一初级中学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阚巍 </t>
+  </si>
+  <si>
+    <t>210104198406023728</t>
+  </si>
+  <si>
+    <t>1984-06-02</t>
+  </si>
+  <si>
+    <t>沈阳市于洪区东湖九年一贯制学校</t>
+  </si>
+  <si>
+    <t>金文香</t>
+  </si>
+  <si>
+    <t>210105197507101942</t>
+  </si>
+  <si>
+    <t>1975-07-10</t>
+  </si>
+  <si>
+    <t>沈阳市皇姑区朝鲜族学校</t>
+  </si>
+  <si>
+    <t>金文奎</t>
+  </si>
+  <si>
+    <t>220102196806153353</t>
+  </si>
+  <si>
+    <t>1968-06-15</t>
+  </si>
+  <si>
+    <t>沈阳市朝鲜族第一中学</t>
+  </si>
+  <si>
+    <t>金鸣</t>
+  </si>
+  <si>
+    <t>210105197611234024</t>
+  </si>
+  <si>
+    <t>1976-11-23</t>
+  </si>
+  <si>
+    <t>沈阳市第九十九中学</t>
+  </si>
+  <si>
+    <t>金明花</t>
+  </si>
+  <si>
+    <t>210402196606144123</t>
+  </si>
+  <si>
+    <t>1966-06-14</t>
+  </si>
+  <si>
+    <t>沈阳市朝鲜族第六中学</t>
+  </si>
+  <si>
+    <t>金姣彤</t>
+  </si>
+  <si>
+    <t>211011199612213024</t>
+  </si>
+  <si>
+    <t>1996-12-21</t>
+  </si>
+  <si>
+    <t>沈阳大学新民师范学院附属小学</t>
+  </si>
+  <si>
+    <t>金国新</t>
+  </si>
+  <si>
+    <t>211225196709240438</t>
+  </si>
+  <si>
+    <t>1967-09-24</t>
+  </si>
+  <si>
+    <t>沈阳市康平县张强九年一贯制学校</t>
+  </si>
+  <si>
+    <t>姜赞洙</t>
+  </si>
+  <si>
+    <t>220523198002122837</t>
+  </si>
+  <si>
+    <t>1980-02-12</t>
+  </si>
+  <si>
+    <t>沈阳市朝鲜族第二中学</t>
+  </si>
+  <si>
+    <t>贾继丹</t>
+  </si>
+  <si>
+    <t>210114197205224214</t>
+  </si>
+  <si>
+    <t>1972-05-22</t>
+  </si>
+  <si>
+    <t>黄哲</t>
+  </si>
+  <si>
+    <t>210102197505230629</t>
+  </si>
+  <si>
+    <t>1975-05-23</t>
+  </si>
+  <si>
+    <t>沈阳市和平区四经街第一小学</t>
+  </si>
+  <si>
+    <t>黄丽华</t>
+  </si>
+  <si>
+    <t>210121196709207425</t>
+  </si>
+  <si>
+    <t>1967-09-20</t>
+  </si>
+  <si>
+    <t>新民市法哈牛学校</t>
+  </si>
+  <si>
+    <t>黄德军</t>
+  </si>
+  <si>
+    <t>220122198810021315</t>
+  </si>
+  <si>
+    <t>1988-10-02</t>
+  </si>
+  <si>
+    <t>沈阳市于洪区东北育才丁香湖小学</t>
+  </si>
+  <si>
+    <t>胡艳荣</t>
+  </si>
+  <si>
+    <t>210321198901230844</t>
+  </si>
+  <si>
+    <t>1989-01-23</t>
+  </si>
+  <si>
+    <t>法库县教育局</t>
+  </si>
+  <si>
+    <t>胡桂君</t>
+  </si>
+  <si>
+    <t>211323197409024861</t>
+  </si>
+  <si>
+    <t>1974-09-02</t>
+  </si>
+  <si>
+    <t>沈阳市和平区青年大街小学</t>
+  </si>
+  <si>
+    <t>胡爱华</t>
+  </si>
+  <si>
+    <t>210104196808244992</t>
+  </si>
+  <si>
+    <t>1968-08-24</t>
+  </si>
+  <si>
+    <t>大东区白塔小学</t>
+  </si>
+  <si>
+    <t>何京仙</t>
+  </si>
+  <si>
+    <t>220503198806221026</t>
+  </si>
+  <si>
+    <t>1988-06-22</t>
+  </si>
+  <si>
+    <t>沈阳市浑南区朝鲜族学校</t>
+  </si>
+  <si>
+    <t>郝德勇</t>
+  </si>
+  <si>
+    <t>210122197111172118</t>
+  </si>
+  <si>
+    <t>1971-11-17</t>
+  </si>
+  <si>
+    <t>沈阳市辽中区第二高级中学</t>
+  </si>
+  <si>
+    <t>韩哲</t>
+  </si>
+  <si>
+    <t>21010519680313164X</t>
+  </si>
+  <si>
+    <t>1968-03-13</t>
+  </si>
+  <si>
+    <t>沈阳市铁西区应昌街小学</t>
+  </si>
+  <si>
+    <t>韩丽雯</t>
+  </si>
+  <si>
+    <t>210104197111301000</t>
+  </si>
+  <si>
+    <t>1971-11-30</t>
+  </si>
+  <si>
+    <t>大东区大东路第三小学</t>
+  </si>
+  <si>
+    <t>郭琦</t>
+  </si>
+  <si>
+    <t>220303198710283037</t>
+  </si>
+  <si>
+    <t>1987-10-28</t>
+  </si>
+  <si>
+    <t>沈阳市新民雨田实验学校</t>
+  </si>
+  <si>
+    <t>关岩</t>
+  </si>
+  <si>
+    <t>210105197904044945</t>
+  </si>
+  <si>
+    <t>1979-04-04</t>
+  </si>
+  <si>
+    <t>沈阳市皇姑区昆山路第四小学</t>
+  </si>
+  <si>
+    <t>关晓霏</t>
+  </si>
+  <si>
+    <t>210103197604070620</t>
+  </si>
+  <si>
+    <t>1976-04-07</t>
+  </si>
+  <si>
+    <t>沈阳铁路实验小学</t>
+  </si>
+  <si>
+    <t>关晶</t>
+  </si>
+  <si>
+    <t>210804198311282020</t>
+  </si>
+  <si>
+    <t>1983-11-28</t>
+  </si>
+  <si>
+    <t>沈阳市第二十七中学</t>
+  </si>
+  <si>
+    <t>关健</t>
+  </si>
+  <si>
+    <t>210111197405287122</t>
+  </si>
+  <si>
+    <t>1974-05-28</t>
+  </si>
+  <si>
+    <t>沈阳市苏家屯区雪松路小学</t>
+  </si>
+  <si>
+    <t>关继雨</t>
+  </si>
+  <si>
+    <t>210114197603314231</t>
+  </si>
+  <si>
+    <t>1976-03-31</t>
+  </si>
+  <si>
+    <t>沈阳市于洪区于洪新城第一小学</t>
+  </si>
+  <si>
+    <t>顾长城</t>
+  </si>
+  <si>
+    <t>210181198001048014</t>
+  </si>
+  <si>
+    <t>1980-01-04</t>
+  </si>
+  <si>
+    <t>沈阳市第一七五中学</t>
+  </si>
+  <si>
+    <t>龚福娟</t>
+  </si>
+  <si>
+    <t>210122198003233328</t>
+  </si>
+  <si>
+    <t>1980-03-23</t>
+  </si>
+  <si>
+    <t>辽中区教育局</t>
+  </si>
+  <si>
+    <t>耿飞</t>
+  </si>
+  <si>
+    <t>210225197410230108</t>
+  </si>
+  <si>
+    <t>1974-10-23</t>
+  </si>
+  <si>
+    <t>葛超</t>
+  </si>
+  <si>
+    <t>222301197702050318</t>
+  </si>
+  <si>
+    <t>1977-02-05</t>
+  </si>
+  <si>
+    <t>高佐强</t>
+  </si>
+  <si>
+    <t>211226197001313217</t>
+  </si>
+  <si>
+    <t>1970-01-31</t>
+  </si>
+  <si>
+    <t>法库县东湖第二初级中学</t>
+  </si>
+  <si>
+    <t>高虹</t>
+  </si>
+  <si>
+    <t>210111198811143014</t>
+  </si>
+  <si>
+    <t>1988-11-14</t>
+  </si>
+  <si>
+    <t>沈阳市浑南区第九小学</t>
+  </si>
+  <si>
+    <t>付佳瑶</t>
+  </si>
+  <si>
+    <t>210122199707160627</t>
+  </si>
+  <si>
+    <t>1997-07-16</t>
+  </si>
+  <si>
+    <t>方连玉</t>
+  </si>
+  <si>
+    <t>210114198303084520</t>
+  </si>
+  <si>
+    <t>1983-03-08</t>
+  </si>
+  <si>
+    <t>沈阳市和平区西塔朝鲜族小学</t>
+  </si>
+  <si>
+    <t>方昆梅</t>
+  </si>
+  <si>
+    <t>210104196901221722</t>
+  </si>
+  <si>
+    <t>1969-01-22</t>
+  </si>
+  <si>
+    <t>邓绪玲</t>
+  </si>
+  <si>
+    <t>210122197010162420</t>
+  </si>
+  <si>
+    <t>1970-10-16</t>
+  </si>
+  <si>
+    <t>沈阳市辽中区第一小学</t>
+  </si>
+  <si>
+    <t>崔雅静</t>
+  </si>
+  <si>
+    <t>210111197909174623</t>
+  </si>
+  <si>
+    <t>1979-09-17</t>
+  </si>
+  <si>
+    <t>沈阳市浑南区第二小学</t>
+  </si>
+  <si>
+    <t>崔丽莉</t>
+  </si>
+  <si>
+    <t>210103198101260929</t>
+  </si>
+  <si>
+    <t>1981-01-26</t>
+  </si>
+  <si>
+    <t>崔京海</t>
+  </si>
+  <si>
+    <t>222404198001091810</t>
+  </si>
+  <si>
+    <t>1980-01-09</t>
+  </si>
+  <si>
+    <t>沈阳市朝鲜族第三中学</t>
+  </si>
+  <si>
+    <t>初慧慧</t>
+  </si>
+  <si>
+    <t>210111199508077127</t>
+  </si>
+  <si>
+    <t>1995-08-07</t>
+  </si>
+  <si>
+    <t>程云利</t>
+  </si>
+  <si>
+    <t>210111197805035610</t>
+  </si>
+  <si>
+    <t>1978-05-03</t>
+  </si>
+  <si>
+    <t>沈阳市青松中学</t>
+  </si>
+  <si>
+    <t>陈鹏勇</t>
+  </si>
+  <si>
+    <t>210113197512154731</t>
+  </si>
+  <si>
+    <t>1975-12-15</t>
+  </si>
+  <si>
+    <t>沈阳市第八十三中学</t>
+  </si>
+  <si>
+    <t>陈娜</t>
+  </si>
+  <si>
+    <t>210106198011052121</t>
+  </si>
+  <si>
+    <t>1980-11-05</t>
+  </si>
+  <si>
+    <t>陈建辉</t>
+  </si>
+  <si>
+    <t>210104197707144318</t>
+  </si>
+  <si>
+    <t>1977-07-14</t>
+  </si>
+  <si>
+    <t>大东区辽沈街第三小学</t>
+  </si>
+  <si>
+    <t>车方晨</t>
+  </si>
+  <si>
+    <t>210112198704080229</t>
+  </si>
+  <si>
+    <t>1987-04-08</t>
+  </si>
+  <si>
+    <t>沈阳农业大学附属中学</t>
+  </si>
+  <si>
+    <t>车宝生</t>
+  </si>
+  <si>
+    <t>210381199304153917</t>
+  </si>
+  <si>
+    <t>1993-04-15</t>
+  </si>
+  <si>
+    <t>蔡玮玲</t>
+  </si>
+  <si>
+    <t>210103199410071245</t>
+  </si>
+  <si>
+    <t>1994-10-07</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区朝阳街第一小学沈北分校</t>
+  </si>
+  <si>
+    <t>白振江</t>
+  </si>
+  <si>
+    <t>210103197706184215</t>
+  </si>
+  <si>
+    <t>1977-06-18</t>
+  </si>
+  <si>
+    <t>沈阳市沈河区北一经街小学</t>
   </si>
 </sst>
 </file>
@@ -102,7 +2157,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +2181,13 @@
       <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -634,16 +2696,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,119 +2711,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,34 +2854,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,10 +3383,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="14.25"/>
@@ -1398,139 +3434,5772 @@
       <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>18816925892</v>
+      <c r="B3" s="9">
+        <v>13998290178</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11">
-        <v>32874</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" t="s">
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
-        <v>18766925892</v>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9">
+        <v>18642095259</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="11">
-        <v>32874</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="14"/>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9">
+        <v>13940215004</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9">
+        <v>13998847999</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="9">
+        <v>13998859971</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="9">
+        <v>15802448184</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="9">
+        <v>13889178527</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="9">
+        <v>13897919411</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="9">
+        <v>13390155637</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="9">
+        <v>15140085033</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="9">
+        <v>13190000532</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" spans="1:10">
+      <c r="A14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="9">
+        <v>18704008900</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" spans="1:10">
+      <c r="A15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="9">
+        <v>13998264022</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" spans="1:10">
+      <c r="A16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="9">
+        <v>13674201900</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" spans="1:10">
+      <c r="A17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="9">
+        <v>13889815707</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="1:10">
+      <c r="A18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="9">
+        <v>13709832548</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" spans="1:10">
+      <c r="A19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="9">
+        <v>13998284358</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" spans="1:10">
+      <c r="A20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="9">
+        <v>13840351932</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" spans="1:10">
+      <c r="A21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="9">
+        <v>13664180212</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" spans="1:10">
+      <c r="A22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="9">
+        <v>17824258784</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" ht="13.5" spans="1:10">
+      <c r="A23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="9">
+        <v>15804013169</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" ht="13.5" spans="1:10">
+      <c r="A24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="9">
+        <v>15140061288</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" spans="1:10">
+      <c r="A25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="9">
+        <v>17741373377</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" spans="1:10">
+      <c r="A26" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="9">
+        <v>13840072957</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="13.5" spans="1:10">
+      <c r="A27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="9">
+        <v>13998195192</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" ht="13.5" spans="1:10">
+      <c r="A28" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="9">
+        <v>13644971700</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" spans="1:10">
+      <c r="A29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="9">
+        <v>15734041995</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="13.5" spans="1:10">
+      <c r="A30" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="9">
+        <v>13940099909</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" ht="13.5" spans="1:10">
+      <c r="A31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="9">
+        <v>13654143153</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" spans="1:10">
+      <c r="A32" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="9">
+        <v>13998229672</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" ht="13.5" spans="1:10">
+      <c r="A33" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="9">
+        <v>18704066362</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" spans="1:10">
+      <c r="A34" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="9">
+        <v>13940180183</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" ht="13.5" spans="1:10">
+      <c r="A35" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="9">
+        <v>13504031915</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" ht="13.5" spans="1:10">
+      <c r="A36" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="9">
+        <v>13909828431</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" spans="1:10">
+      <c r="A37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="9">
+        <v>13889217732</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" ht="13.5" spans="1:10">
+      <c r="A38" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="9">
+        <v>15102405392</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" spans="1:10">
+      <c r="A39" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="9">
+        <v>13898827345</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" spans="1:10">
+      <c r="A40" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="9">
+        <v>13940524758</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" ht="13.5" spans="1:10">
+      <c r="A41" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="9">
+        <v>18704097401</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" spans="1:10">
+      <c r="A42" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="9">
+        <v>18040036606</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" ht="13.5" spans="1:10">
+      <c r="A43" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="9">
+        <v>13842033726</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" ht="13.5" spans="1:10">
+      <c r="A44" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="9">
+        <v>13555716500</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" ht="13.5" spans="1:10">
+      <c r="A45" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="9">
+        <v>13674254520</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" ht="13.5" spans="1:10">
+      <c r="A46" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="9">
+        <v>13898806600</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" ht="13.5" spans="1:10">
+      <c r="A47" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="9">
+        <v>15204099935</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" ht="13.5" spans="1:10">
+      <c r="A48" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="9">
+        <v>13940220605</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" ht="13.5" spans="1:10">
+      <c r="A49" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="9">
+        <v>13555894520</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" ht="13.5" spans="1:10">
+      <c r="A50" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="9">
+        <v>13555894520</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" ht="13.5" spans="1:10">
+      <c r="A51" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="9">
+        <v>18309872330</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" ht="13.5" spans="1:10">
+      <c r="A52" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="9">
+        <v>18102485399</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" ht="13.5" spans="1:10">
+      <c r="A53" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="9">
+        <v>15142567893</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" ht="13.5" spans="1:10">
+      <c r="A54" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="9">
+        <v>13079217783</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" ht="13.5" spans="1:10">
+      <c r="A55" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="9">
+        <v>15998892223</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" spans="1:10">
+      <c r="A56" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="9">
+        <v>15998438662</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" ht="13.5" spans="1:10">
+      <c r="A57" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="9">
+        <v>15802408988</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" ht="13.5" spans="1:10">
+      <c r="A58" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="9">
+        <v>15840185588</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" spans="1:10">
+      <c r="A59" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="9">
+        <v>13889802488</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" spans="1:10">
+      <c r="A60" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="9">
+        <v>18302438013</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" spans="1:10">
+      <c r="A61" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="9">
+        <v>13709834148</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" spans="1:10">
+      <c r="A62" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" s="9">
+        <v>13842095644</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" ht="13.5" spans="1:10">
+      <c r="A63" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="9">
+        <v>18640088139</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" ht="13.5" spans="1:10">
+      <c r="A64" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="9">
+        <v>13080710161</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" ht="13.5" spans="1:10">
+      <c r="A65" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B65" s="9">
+        <v>13909820838</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" ht="13.5" spans="1:10">
+      <c r="A66" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" s="9">
+        <v>13904050640</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" ht="13.5" spans="1:10">
+      <c r="A67" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" s="9">
+        <v>15041254585</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" ht="13.5" spans="1:10">
+      <c r="A68" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68" s="9">
+        <v>18842360683</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" ht="13.5" spans="1:10">
+      <c r="A69" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" s="9">
+        <v>13889115857</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" ht="13.5" spans="1:10">
+      <c r="A70" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="9">
+        <v>13332449918</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" ht="13.5" spans="1:10">
+      <c r="A71" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="9">
+        <v>15904086112</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" ht="13.5" spans="1:10">
+      <c r="A72" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="9">
+        <v>13604211099</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" ht="13.5" spans="1:10">
+      <c r="A73" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="9">
+        <v>13332401388</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" ht="13.5" spans="1:10">
+      <c r="A74" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B74" s="9">
+        <v>18602466336</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" ht="13.5" spans="1:10">
+      <c r="A75" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" s="9">
+        <v>18940173337</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" ht="13.5" spans="1:10">
+      <c r="A76" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="9">
+        <v>13804017826</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" ht="13.5" spans="1:10">
+      <c r="A77" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" s="9">
+        <v>13609822719</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" ht="13.5" spans="1:10">
+      <c r="A78" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="9">
+        <v>13080803079</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" ht="13.5" spans="1:10">
+      <c r="A79" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" s="9">
+        <v>18640021357</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" ht="13.5" spans="1:10">
+      <c r="A80" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B80" s="9">
+        <v>13840507263</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" ht="13.5" spans="1:10">
+      <c r="A81" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" s="9">
+        <v>13555780600</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" ht="13.5" spans="1:10">
+      <c r="A82" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B82" s="9">
+        <v>13504006180</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" ht="13.5" spans="1:10">
+      <c r="A83" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B83" s="9">
+        <v>13604929042</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" ht="13.5" spans="1:10">
+      <c r="A84" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84" s="9">
+        <v>18842386037</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" ht="13.5" spans="1:10">
+      <c r="A85" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B85" s="9">
+        <v>15242021956</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" ht="13.5" spans="1:10">
+      <c r="A86" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B86" s="9">
+        <v>18512469565</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" ht="13.5" spans="1:10">
+      <c r="A87" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B87" s="9">
+        <v>13082486658</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" ht="13.5" spans="1:10">
+      <c r="A88" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" s="9">
+        <v>13998340304</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" ht="13.5" spans="1:10">
+      <c r="A89" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B89" s="9">
+        <v>13654036528</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" ht="13.5" spans="1:10">
+      <c r="A90" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B90" s="9">
+        <v>13940412567</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" ht="13.5" spans="1:10">
+      <c r="A91" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B91" s="9">
+        <v>15002436192</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" ht="13.5" spans="1:10">
+      <c r="A92" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B92" s="9">
+        <v>13897909609</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" ht="13.5" spans="1:10">
+      <c r="A93" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B93" s="9">
+        <v>13124119219</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" ht="13.5" spans="1:10">
+      <c r="A94" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B94" s="9">
+        <v>15604005611</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" ht="13.5" spans="1:10">
+      <c r="A95" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B95" s="9">
+        <v>18624085855</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" ht="13.5" spans="1:10">
+      <c r="A96" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" s="9">
+        <v>15142060390</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" ht="13.5" spans="1:10">
+      <c r="A97" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B97" s="9">
+        <v>13940096495</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" ht="13.5" spans="1:10">
+      <c r="A98" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B98" s="9">
+        <v>13604077516</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="13.5" spans="1:10">
+      <c r="A99" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B99" s="9">
+        <v>15524110173</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" ht="13.5" spans="1:10">
+      <c r="A100" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B100" s="9">
+        <v>18502418615</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" ht="13.5" spans="1:10">
+      <c r="A101" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B101" s="9">
+        <v>17111498777</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" ht="13.5" spans="1:10">
+      <c r="A102" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B102" s="9">
+        <v>13940231317</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="13.5" spans="1:10">
+      <c r="A103" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B103" s="9">
+        <v>15840308308</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" ht="13.5" spans="1:10">
+      <c r="A104" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B104" s="9">
+        <v>15940125112</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" ht="13.5" spans="1:10">
+      <c r="A105" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B105" s="9">
+        <v>13998220035</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" ht="13.5" spans="1:10">
+      <c r="A106" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B106" s="9">
+        <v>18604939788</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" ht="13.5" spans="1:10">
+      <c r="A107" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B107" s="9">
+        <v>18240185740</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" ht="13.5" spans="1:10">
+      <c r="A108" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B108" s="9">
+        <v>13840295796</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" ht="13.5" spans="1:10">
+      <c r="A109" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B109" s="9">
+        <v>13897935617</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" ht="13.5" spans="1:10">
+      <c r="A110" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B110" s="9">
+        <v>18698803555</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" ht="13.5" spans="1:10">
+      <c r="A111" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B111" s="9">
+        <v>13614003353</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" ht="13.5" spans="1:10">
+      <c r="A112" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B112" s="9">
+        <v>18624308712</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" ht="13.5" spans="1:10">
+      <c r="A113" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B113" s="9">
+        <v>15640409305</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" ht="13.5" spans="1:10">
+      <c r="A114" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B114" s="9">
+        <v>13940215196</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" ht="13.5" spans="1:10">
+      <c r="A115" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B115" s="9">
+        <v>13322446522</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" ht="13.5" spans="1:10">
+      <c r="A116" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B116" s="9">
+        <v>13940465980</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" ht="13.5" spans="1:10">
+      <c r="A117" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B117" s="9">
+        <v>13940576622</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" ht="13.5" spans="1:10">
+      <c r="A118" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B118" s="9">
+        <v>15140016096</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" ht="13.5" spans="1:10">
+      <c r="A119" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B119" s="9">
+        <v>18842486348</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" ht="13.5" spans="1:10">
+      <c r="A120" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B120" s="9">
+        <v>13940198711</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" ht="13.5" spans="1:10">
+      <c r="A121" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B121" s="9">
+        <v>18240019232</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" ht="13.5" spans="1:10">
+      <c r="A122" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B122" s="9">
+        <v>13940276929</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" ht="13.5" spans="1:10">
+      <c r="A123" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B123" s="9">
+        <v>18809844468</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" ht="13.5" spans="1:10">
+      <c r="A124" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B124" s="9">
+        <v>18698893940</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" ht="13.5" spans="1:10">
+      <c r="A125" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B125" s="9">
+        <v>18740072866</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" ht="13.5" spans="1:10">
+      <c r="A126" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B126" s="9">
+        <v>15940053667</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" ht="13.5" spans="1:10">
+      <c r="A127" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B127" s="9">
+        <v>13940584390</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" ht="13.5" spans="1:10">
+      <c r="A128" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B128" s="9">
+        <v>18609886495</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" ht="13.5" spans="1:10">
+      <c r="A129" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B129" s="9">
+        <v>15241383889</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" ht="13.5" spans="1:10">
+      <c r="A130" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B130" s="9">
+        <v>15940311916</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" ht="13.5" spans="1:10">
+      <c r="A131" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B131" s="9">
+        <v>18642012940</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" ht="13.5" spans="1:10">
+      <c r="A132" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B132" s="9">
+        <v>13898192427</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" ht="13.5" spans="1:10">
+      <c r="A133" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B133" s="9">
+        <v>18304235189</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" ht="13.5" spans="1:10">
+      <c r="A134" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B134" s="9">
+        <v>13889891831</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" ht="13.5" spans="1:10">
+      <c r="A135" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B135" s="9">
+        <v>13604188235</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" ht="13.5" spans="1:10">
+      <c r="A136" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B136" s="9">
+        <v>13998368671</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" ht="13.5" spans="1:10">
+      <c r="A137" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B137" s="9">
+        <v>15904054504</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" ht="13.5" spans="1:10">
+      <c r="A138" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B138" s="9">
+        <v>13940100067</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" ht="13.5" spans="1:10">
+      <c r="A139" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B139" s="9">
+        <v>13386850998</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" ht="13.5" spans="1:10">
+      <c r="A140" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B140" s="9">
+        <v>18525092413</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" ht="13.5" spans="1:10">
+      <c r="A141" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B141" s="9">
+        <v>13940038951</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" ht="13.5" spans="1:10">
+      <c r="A142" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B142" s="9">
+        <v>15940211815</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" ht="13.5" spans="1:10">
+      <c r="A143" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B143" s="9">
+        <v>13889301468</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144" ht="13.5" spans="1:10">
+      <c r="A144" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B144" s="9">
+        <v>18842545611</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" ht="13.5" spans="1:10">
+      <c r="A145" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B145" s="9">
+        <v>15002448685</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146" ht="13.5" spans="1:10">
+      <c r="A146" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B146" s="9">
+        <v>13555836533</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" ht="13.5" spans="1:10">
+      <c r="A147" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B147" s="9">
+        <v>13940281577</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" ht="13.5" spans="1:10">
+      <c r="A148" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B148" s="9">
+        <v>15541514741</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" ht="13.5" spans="1:10">
+      <c r="A149" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B149" s="9">
+        <v>13998202921</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" ht="13.5" spans="1:10">
+      <c r="A150" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B150" s="9">
+        <v>18642366003</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151" ht="13.5" spans="1:10">
+      <c r="A151" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B151" s="9">
+        <v>18640359009</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" ht="13.5" spans="1:10">
+      <c r="A152" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B152" s="9">
+        <v>13610828293</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" ht="13.5" spans="1:10">
+      <c r="A153" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B153" s="9">
+        <v>15640265152</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" ht="13.5" spans="1:10">
+      <c r="A154" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B154" s="9">
+        <v>15840500437</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="155" ht="13.5" spans="1:10">
+      <c r="A155" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B155" s="9">
+        <v>13940043898</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" ht="13.5" spans="1:10">
+      <c r="A156" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B156" s="9">
+        <v>18102491234</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" ht="13.5" spans="1:10">
+      <c r="A157" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B157" s="9">
+        <v>18698810417</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" ht="13.5" spans="1:10">
+      <c r="A158" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B158" s="9">
+        <v>13840392889</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" ht="13.5" spans="1:10">
+      <c r="A159" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B159" s="9">
+        <v>18704035899</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" ht="13.5" spans="1:10">
+      <c r="A160" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B160" s="9">
+        <v>13898848176</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" ht="13.5" spans="1:10">
+      <c r="A161" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B161" s="9">
+        <v>15998117029</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="162" ht="13.5" spans="1:10">
+      <c r="A162" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B162" s="9">
+        <v>13002474827</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="163" ht="13.5" spans="1:10">
+      <c r="A163" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B163" s="9">
+        <v>13840020386</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" ht="13.5" spans="1:10">
+      <c r="A164" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B164" s="9">
+        <v>13898872472</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="H164" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" ht="13.5" spans="1:10">
+      <c r="A165" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B165" s="9">
+        <v>15710596872</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" ht="13.5" spans="1:10">
+      <c r="A166" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B166" s="9">
+        <v>13079223030</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="167" ht="13.5" spans="1:10">
+      <c r="A167" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B167" s="9">
+        <v>15542278299</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" ht="13.5" spans="1:10">
+      <c r="A168" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B168" s="9">
+        <v>15640584984</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" ht="13.5" spans="1:10">
+      <c r="A169" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B169" s="9">
+        <v>13066690733</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" ht="13.5" spans="1:10">
+      <c r="A170" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="B170" s="9">
+        <v>13998263620</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" ht="13.5" spans="1:10">
+      <c r="A171" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B171" s="9">
+        <v>13940092098</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="172" ht="13.5" spans="1:10">
+      <c r="A172" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B172" s="9">
+        <v>13889861827</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I172" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" ht="13.5" spans="1:10">
+      <c r="A173" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B173" s="9">
+        <v>15802461073</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" ht="13.5" spans="1:10">
+      <c r="A174" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="B174" s="9">
+        <v>13940012563</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" ht="13.5" spans="1:10">
+      <c r="A175" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B175" s="9">
+        <v>15640499578</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" ht="13.5" spans="1:10">
+      <c r="A176" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B176" s="9">
+        <v>13940275207</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I176" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" ht="13.5" spans="1:10">
+      <c r="A177" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B177" s="9">
+        <v>13898173055</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I177" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" ht="13.5" spans="1:10">
+      <c r="A178" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B178" s="9">
+        <v>17740020960</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I178" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" ht="13.5" spans="1:10">
+      <c r="A179" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B179" s="9">
+        <v>15140246177</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="180" ht="13.5" spans="1:10">
+      <c r="A180" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B180" s="9">
+        <v>15140246177</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I180" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" ht="13.5" spans="1:10">
+      <c r="A181" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B181" s="9">
+        <v>13840341570</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" ht="13.5" spans="1:10">
+      <c r="A182" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B182" s="9">
+        <v>13555773728</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="H182" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I182" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/821.xlsx
+++ b/rules/821.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="737">
   <si>
     <t>姓名</t>
   </si>
@@ -2145,6 +2145,99 @@
   </si>
   <si>
     <t>沈阳市沈河区北一经街小学</t>
+  </si>
+  <si>
+    <t>邢春红</t>
+  </si>
+  <si>
+    <t>210111197105183022</t>
+  </si>
+  <si>
+    <t>1971-05-18</t>
+  </si>
+  <si>
+    <t>沈阳市第三十中学</t>
+  </si>
+  <si>
+    <t>邢占</t>
+  </si>
+  <si>
+    <t>210181198201091535</t>
+  </si>
+  <si>
+    <t>1982-01-09</t>
+  </si>
+  <si>
+    <t>郑杰</t>
+  </si>
+  <si>
+    <t>23088219871117526X</t>
+  </si>
+  <si>
+    <t>沈阳市第三十六中学</t>
+  </si>
+  <si>
+    <t>王春杰</t>
+  </si>
+  <si>
+    <t>220282198711145322</t>
+  </si>
+  <si>
+    <t>沈阳市第四中学</t>
+  </si>
+  <si>
+    <t>王素艳</t>
+  </si>
+  <si>
+    <t>210114197301170025</t>
+  </si>
+  <si>
+    <t>沈阳市第二十二中学</t>
+  </si>
+  <si>
+    <t>周烨</t>
+  </si>
+  <si>
+    <t>210103197808141865</t>
+  </si>
+  <si>
+    <t>沈阳市同泽高级中学</t>
+  </si>
+  <si>
+    <t>李晓莉</t>
+  </si>
+  <si>
+    <t>210102197310235323</t>
+  </si>
+  <si>
+    <t>沈阳市第三十八中学</t>
+  </si>
+  <si>
+    <t>霍妍</t>
+  </si>
+  <si>
+    <t>210112197510140225</t>
+  </si>
+  <si>
+    <t>沈阳市第三十五中学</t>
+  </si>
+  <si>
+    <t>曹瑞</t>
+  </si>
+  <si>
+    <t>220103198701042732</t>
+  </si>
+  <si>
+    <t>沈阳市法库县高级中学</t>
+  </si>
+  <si>
+    <t>郑楠</t>
+  </si>
+  <si>
+    <t>210106197010034947</t>
+  </si>
+  <si>
+    <t>沈阳市第三十一中学</t>
   </si>
 </sst>
 </file>
@@ -2183,19 +2276,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2826,7 +2917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2854,9 +2945,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3383,10 +3528,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="J192" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="14.25"/>
@@ -8209,7 +8354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" ht="13.5" spans="1:10">
+    <row r="152" spans="1:10">
       <c r="A152" s="9" t="s">
         <v>594</v>
       </c>
@@ -8241,7 +8386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" ht="13.5" spans="1:10">
+    <row r="153" spans="1:10">
       <c r="A153" s="9" t="s">
         <v>598</v>
       </c>
@@ -8273,7 +8418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="154" ht="13.5" spans="1:10">
+    <row r="154" spans="1:10">
       <c r="A154" s="9" t="s">
         <v>602</v>
       </c>
@@ -8305,7 +8450,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="155" ht="13.5" spans="1:10">
+    <row r="155" spans="1:10">
       <c r="A155" s="9" t="s">
         <v>606</v>
       </c>
@@ -8337,7 +8482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="156" ht="13.5" spans="1:10">
+    <row r="156" spans="1:10">
       <c r="A156" s="9" t="s">
         <v>610</v>
       </c>
@@ -8369,7 +8514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" ht="13.5" spans="1:10">
+    <row r="157" spans="1:10">
       <c r="A157" s="9" t="s">
         <v>614</v>
       </c>
@@ -8401,7 +8546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" ht="13.5" spans="1:10">
+    <row r="158" spans="1:10">
       <c r="A158" s="9" t="s">
         <v>618</v>
       </c>
@@ -8433,7 +8578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="159" ht="13.5" spans="1:10">
+    <row r="159" spans="1:10">
       <c r="A159" s="9" t="s">
         <v>622</v>
       </c>
@@ -8465,7 +8610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" ht="13.5" spans="1:10">
+    <row r="160" spans="1:10">
       <c r="A160" s="9" t="s">
         <v>626</v>
       </c>
@@ -8497,7 +8642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" ht="13.5" spans="1:10">
+    <row r="161" spans="1:10">
       <c r="A161" s="9" t="s">
         <v>630</v>
       </c>
@@ -8529,7 +8674,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="162" ht="13.5" spans="1:10">
+    <row r="162" spans="1:10">
       <c r="A162" s="9" t="s">
         <v>634</v>
       </c>
@@ -8561,7 +8706,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="163" ht="13.5" spans="1:10">
+    <row r="163" spans="1:10">
       <c r="A163" s="9" t="s">
         <v>637</v>
       </c>
@@ -8593,7 +8738,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="164" ht="13.5" spans="1:10">
+    <row r="164" spans="1:10">
       <c r="A164" s="9" t="s">
         <v>640</v>
       </c>
@@ -8625,7 +8770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" ht="13.5" spans="1:10">
+    <row r="165" spans="1:10">
       <c r="A165" s="9" t="s">
         <v>644</v>
       </c>
@@ -8657,7 +8802,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="166" ht="13.5" spans="1:10">
+    <row r="166" spans="1:10">
       <c r="A166" s="9" t="s">
         <v>648</v>
       </c>
@@ -8689,7 +8834,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="167" ht="13.5" spans="1:10">
+    <row r="167" spans="1:10">
       <c r="A167" s="9" t="s">
         <v>651</v>
       </c>
@@ -8721,7 +8866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" ht="13.5" spans="1:10">
+    <row r="168" spans="1:10">
       <c r="A168" s="9" t="s">
         <v>655</v>
       </c>
@@ -8753,7 +8898,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" ht="13.5" spans="1:10">
+    <row r="169" spans="1:10">
       <c r="A169" s="9" t="s">
         <v>658</v>
       </c>
@@ -8785,7 +8930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" ht="13.5" spans="1:10">
+    <row r="170" spans="1:10">
       <c r="A170" s="9" t="s">
         <v>662</v>
       </c>
@@ -8817,7 +8962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" ht="13.5" spans="1:10">
+    <row r="171" spans="1:10">
       <c r="A171" s="9" t="s">
         <v>666</v>
       </c>
@@ -8849,7 +8994,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="172" ht="13.5" spans="1:10">
+    <row r="172" spans="1:10">
       <c r="A172" s="9" t="s">
         <v>669</v>
       </c>
@@ -8881,7 +9026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" ht="13.5" spans="1:10">
+    <row r="173" spans="1:10">
       <c r="A173" s="9" t="s">
         <v>673</v>
       </c>
@@ -8913,7 +9058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="174" ht="13.5" spans="1:10">
+    <row r="174" spans="1:10">
       <c r="A174" s="9" t="s">
         <v>676</v>
       </c>
@@ -8945,7 +9090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" ht="13.5" spans="1:10">
+    <row r="175" spans="1:10">
       <c r="A175" s="9" t="s">
         <v>680</v>
       </c>
@@ -8977,7 +9122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" ht="13.5" spans="1:10">
+    <row r="176" spans="1:10">
       <c r="A176" s="9" t="s">
         <v>684</v>
       </c>
@@ -9009,7 +9154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" ht="13.5" spans="1:10">
+    <row r="177" spans="1:10">
       <c r="A177" s="9" t="s">
         <v>687</v>
       </c>
@@ -9041,7 +9186,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="178" ht="13.5" spans="1:10">
+    <row r="178" spans="1:10">
       <c r="A178" s="9" t="s">
         <v>691</v>
       </c>
@@ -9073,7 +9218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" ht="13.5" spans="1:10">
+    <row r="179" spans="1:10">
       <c r="A179" s="9" t="s">
         <v>695</v>
       </c>
@@ -9105,7 +9250,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="180" ht="13.5" spans="1:10">
+    <row r="180" spans="1:10">
       <c r="A180" s="9" t="s">
         <v>695</v>
       </c>
@@ -9137,7 +9282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" ht="13.5" spans="1:10">
+    <row r="181" spans="1:10">
       <c r="A181" s="9" t="s">
         <v>698</v>
       </c>
@@ -9169,7 +9314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="182" ht="13.5" spans="1:10">
+    <row r="182" spans="1:10">
       <c r="A182" s="9" t="s">
         <v>702</v>
       </c>
@@ -9199,6 +9344,444 @@
       </c>
       <c r="J182" s="9" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B183" s="12">
+        <v>13516084589</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="F183" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="H183" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I183" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B184" s="12">
+        <v>15840575787</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="F184" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H184" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I184" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="B185" s="18">
+        <v>15204081690</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="E185" s="20" t="str">
+        <f t="shared" ref="E185:E195" si="0">TEXT(MID(D185,7,8),"0-00-00")</f>
+        <v>1987-11-17</v>
+      </c>
+      <c r="F185" s="20" t="str">
+        <f t="shared" ref="F185:F195" si="1">IF(MOD(MID(D185,17,1),2),"男","女")</f>
+        <v>女</v>
+      </c>
+      <c r="G185" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="H185" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I185" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="B186" s="18">
+        <v>15998266939</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="E186" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1987-11-14</v>
+      </c>
+      <c r="F186" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>女</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="H186" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I186" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="B187" s="18">
+        <v>13940172492</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="E187" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1973-01-17</v>
+      </c>
+      <c r="F187" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>女</v>
+      </c>
+      <c r="G187" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H187" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I187" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="B188" s="18">
+        <v>15998346888</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="E188" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1978-08-14</v>
+      </c>
+      <c r="F188" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>女</v>
+      </c>
+      <c r="G188" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="H188" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I188" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="B189" s="18">
+        <v>18802497285</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="E189" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1973-10-23</v>
+      </c>
+      <c r="F189" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>女</v>
+      </c>
+      <c r="G189" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="H189" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I189" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B190" s="18">
+        <v>18302438013</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E190" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1991-10-20</v>
+      </c>
+      <c r="F190" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>女</v>
+      </c>
+      <c r="G190" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H190" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I190" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="B191" s="18">
+        <v>15668887617</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="E191" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1975-10-14</v>
+      </c>
+      <c r="F191" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>女</v>
+      </c>
+      <c r="G191" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="H191" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I191" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="B192" s="22">
+        <v>13478332194</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="E192" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>1987-01-04</v>
+      </c>
+      <c r="F192" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>男</v>
+      </c>
+      <c r="G192" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="H192" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I192" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B193" s="22">
+        <v>13840351932</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E193" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>1970-02-05</v>
+      </c>
+      <c r="F193" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>女</v>
+      </c>
+      <c r="G193" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H193" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I193" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" ht="12" customHeight="1" spans="1:10">
+      <c r="A194" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="B194" s="22">
+        <v>15998346888</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="E194" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>1978-08-14</v>
+      </c>
+      <c r="F194" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>女</v>
+      </c>
+      <c r="G194" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="H194" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I194" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="B195" s="22">
+        <v>13904022866</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="E195" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>1970-10-03</v>
+      </c>
+      <c r="F195" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>女</v>
+      </c>
+      <c r="G195" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="H195" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I195" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195" s="23" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
